--- a/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
+++ b/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jimeno\Documents\CityEnergyAnalyst\cea\databases\lifecycle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JimenoF\Documents\Github\CityEnergyAnalyst\cea\databases\SIN\lifecycle\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="458" windowWidth="28800" windowHeight="16260" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260"/>
   </bookViews>
   <sheets>
-    <sheet name="dhw" sheetId="4" r:id="rId1"/>
-    <sheet name="heating" sheetId="1" r:id="rId2"/>
-    <sheet name="cooling" sheetId="2" r:id="rId3"/>
-    <sheet name="electricity" sheetId="3" r:id="rId4"/>
+    <sheet name="DHW" sheetId="4" r:id="rId1"/>
+    <sheet name="HEATING" sheetId="1" r:id="rId2"/>
+    <sheet name="COOLING" sheetId="2" r:id="rId3"/>
+    <sheet name="ELECTRICITY" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="72">
   <si>
     <t>Description</t>
   </si>
@@ -270,14 +270,51 @@
   </si>
   <si>
     <t>district cooling network - air-air</t>
+  </si>
+  <si>
+    <t>EFF</t>
+  </si>
+  <si>
+    <t>OIL</t>
+  </si>
+  <si>
+    <t>COAL</t>
+  </si>
+  <si>
+    <t>GAS</t>
+  </si>
+  <si>
+    <t>WOOD</t>
+  </si>
+  <si>
+    <t>ELECTRICITY</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>SOIL</t>
+  </si>
+  <si>
+    <t>AIR</t>
+  </si>
+  <si>
+    <t>WATER</t>
+  </si>
+  <si>
+    <t>SUN</t>
+  </si>
+  <si>
+    <t>DH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -366,7 +403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -435,6 +472,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -785,422 +828,556 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.33203125" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.46484375" customWidth="1"/>
-    <col min="4" max="4" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="27">
         <v>0</v>
       </c>
-      <c r="D2" s="11">
+      <c r="E2" s="11">
         <v>0</v>
       </c>
-      <c r="E2" s="18">
+      <c r="F2" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G2" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="E3" s="3">
         <f>1.3*1.15</f>
         <v>1.4949999999999999</v>
       </c>
-      <c r="D3" s="3">
+      <c r="F3" s="3">
         <f>1.15*0.0886</f>
         <v>0.10188999999999999</v>
       </c>
-      <c r="E3" s="18">
+      <c r="G3" s="18">
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="3">
         <f>1.68*1.15/0.8</f>
         <v>2.4149999999999996</v>
       </c>
-      <c r="D4" s="3">
+      <c r="F4" s="3">
         <f>1.15*0.12/0.8</f>
         <v>0.17249999999999996</v>
       </c>
-      <c r="E4" s="18">
+      <c r="G4" s="18">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="E5" s="3">
         <f>1.22*1.15</f>
         <v>1.4029999999999998</v>
       </c>
-      <c r="D5" s="3">
+      <c r="F5" s="3">
         <f>1.15*0.0869</f>
         <v>9.9934999999999996E-2</v>
       </c>
-      <c r="E5" s="18">
+      <c r="G5" s="18">
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="E6" s="3">
         <f>2.63*0.9*1.15</f>
         <v>2.7220499999999999</v>
       </c>
-      <c r="D6" s="3">
+      <c r="F6" s="3">
         <f>1.15*0.0413*0.9</f>
         <v>4.2745500000000006E-2</v>
       </c>
-      <c r="E6" s="18">
+      <c r="G6" s="18">
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E7" s="13">
         <f>0.2773328387*1.15</f>
         <v>0.31893276450499997</v>
       </c>
-      <c r="D7" s="13">
+      <c r="F7" s="13">
         <f>1.15*0.014000495</f>
         <v>1.6100569249999998E-2</v>
       </c>
-      <c r="E7" s="18">
+      <c r="G7" s="18">
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="28">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
         <f>0.695*1.15</f>
         <v>0.7992499999999999</v>
       </c>
-      <c r="D8" s="3">
+      <c r="F8" s="3">
         <f>1.15*0.0164</f>
         <v>1.8860000000000002E-2</v>
       </c>
-      <c r="E8" s="18">
+      <c r="G8" s="18">
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0.7</v>
+      </c>
+      <c r="E9" s="3">
         <f>1.15*0.241</f>
         <v>0.27714999999999995</v>
       </c>
-      <c r="D9" s="3">
+      <c r="F9" s="3">
         <f>1.15*0.0112</f>
         <v>1.2879999999999999E-2</v>
       </c>
-      <c r="E9" s="18">
+      <c r="G9" s="18">
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="3">
-        <f>electricity!C3*1.15/2.7</f>
+      <c r="C10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="28">
+        <v>2.7</v>
+      </c>
+      <c r="E10" s="3">
+        <f>ELECTRICITY!C3*1.15/2.7</f>
         <v>1.120185185185185</v>
       </c>
-      <c r="D10" s="3">
-        <f>1.15*electricity!D3/2.7</f>
+      <c r="F10" s="3">
+        <f>1.15*ELECTRICITY!D3/2.7</f>
         <v>1.759074074074074E-2</v>
       </c>
-      <c r="E10" s="22">
+      <c r="G10" s="22">
         <f>0.2/4</f>
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="28">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3">
         <f>0.795*1.15</f>
         <v>0.91425000000000001</v>
       </c>
-      <c r="D11" s="3">
+      <c r="F11" s="3">
         <f>1.15*0.0179</f>
         <v>2.0584999999999999E-2</v>
       </c>
-      <c r="E11" s="22">
+      <c r="G11" s="22">
         <f>0.2/4</f>
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E12" s="3">
         <v>1.55</v>
       </c>
-      <c r="D12" s="3">
+      <c r="F12" s="3">
         <v>8.6900000000000005E-2</v>
       </c>
-      <c r="E12" s="23">
+      <c r="G12" s="23">
         <v>0.08</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="3">
+      <c r="F13" s="3">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="E13" s="18">
+      <c r="G13" s="18">
         <v>0.08</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E14" s="3">
         <v>1.68</v>
       </c>
-      <c r="D14" s="3">
+      <c r="F14" s="3">
         <v>0.112</v>
       </c>
-      <c r="E14" s="18">
+      <c r="G14" s="18">
         <v>0.08</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E15" s="3">
         <v>0.64100000000000001</v>
       </c>
-      <c r="D15" s="3">
+      <c r="F15" s="3">
         <v>3.7699999999999997E-2</v>
       </c>
-      <c r="E15" s="18">
+      <c r="G15" s="18">
         <v>0.08</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="3">
-        <f>C9*0.8</f>
+      <c r="C16" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E16" s="3">
+        <f>E9*0.8</f>
         <v>0.22171999999999997</v>
       </c>
-      <c r="D16" s="3">
-        <f>D9*0.8</f>
+      <c r="F16" s="3">
+        <f>F9*0.8</f>
         <v>1.0304000000000001E-2</v>
       </c>
-      <c r="E16" s="18">
+      <c r="G16" s="18">
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="12">
-        <f>C9*0.3+C5*0.7</f>
+      <c r="C17" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E17" s="12">
+        <f>E9*0.3+E5*0.7</f>
         <v>1.0652449999999998</v>
       </c>
-      <c r="D17" s="12">
-        <f>D9*0.3+D5*0.7</f>
+      <c r="F17" s="12">
+        <f>F9*0.3+F5*0.7</f>
         <v>7.3818499999999981E-2</v>
       </c>
-      <c r="E17" s="18">
+      <c r="G17" s="18">
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="12">
-        <f>C9*0.6+C12*0.4</f>
+      <c r="C18" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E18" s="12">
+        <f>E9*0.6+E12*0.4</f>
         <v>0.78629000000000004</v>
       </c>
-      <c r="D18" s="12">
-        <f>D9*0.6+D12*0.4</f>
+      <c r="F18" s="12">
+        <f>F9*0.6+F12*0.4</f>
         <v>4.2488000000000005E-2</v>
       </c>
-      <c r="E18" s="18">
+      <c r="G18" s="18">
         <v>0.08</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="12">
-        <f>C9*0.6+C13*0.3+C12*0.1</f>
+      <c r="C19" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E19" s="12">
+        <f>E9*0.6+E13*0.3+E12*0.1</f>
         <v>0.62129000000000001</v>
       </c>
-      <c r="D19" s="12">
-        <f>D9*0.6+D13*0.3+D12*0.1</f>
+      <c r="F19" s="12">
+        <f>F9*0.6+F13*0.3+F12*0.1</f>
         <v>2.3168000000000001E-2</v>
       </c>
-      <c r="E19" s="18">
+      <c r="G19" s="18">
         <v>0.08</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E20" s="12">
         <v>1.2761111111111112</v>
       </c>
-      <c r="D20" s="12">
+      <c r="F20" s="12">
         <v>4.6404444444444443E-2</v>
       </c>
-      <c r="E20" s="18">
+      <c r="G20" s="18">
         <v>0.08</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>52</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E21" s="12">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="D21" s="12">
+      <c r="F21" s="12">
         <v>9.3999999999999997E-4</v>
       </c>
-      <c r="E21" s="18">
+      <c r="G21" s="18">
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="3">
-        <f>(0.43*(C21)+0.28*(electricity!C3/2.96)+0.18*0.954+0.11*0)</f>
+      <c r="C22" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E22" s="3">
+        <f>(0.43*(E21)+0.28*(ELECTRICITY!C3/2.96)+0.18*0.954+0.11*0)</f>
         <v>0.44359478378378375</v>
       </c>
-      <c r="D22" s="3">
-        <f>(0.43*(D21)+0.28*(electricity!D3/2.96)+0.18*0.0149+0.11*0)</f>
+      <c r="F22" s="3">
+        <f>(0.43*(F21)+0.28*(ELECTRICITY!D3/2.96)+0.18*0.0149+0.11*0)</f>
         <v>6.9929567567567578E-3</v>
       </c>
-      <c r="E22" s="18">
+      <c r="G22" s="18">
         <v>0.08</v>
       </c>
     </row>
@@ -1219,15 +1396,15 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.06640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.46484375" customWidth="1"/>
-    <col min="4" max="4" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1244,7 +1421,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1261,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -1280,7 +1457,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -1299,7 +1476,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -1318,7 +1495,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -1337,7 +1514,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -1356,7 +1533,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1375,7 +1552,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1394,7 +1571,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1402,11 +1579,11 @@
         <v>31</v>
       </c>
       <c r="C10" s="3">
-        <f>electricity!C3*1.15/2.7</f>
+        <f>ELECTRICITY!C3*1.15/2.7</f>
         <v>1.120185185185185</v>
       </c>
       <c r="D10" s="3">
-        <f>electricity!D3*1.15/2.7</f>
+        <f>ELECTRICITY!D3*1.15/2.7</f>
         <v>1.759074074074074E-2</v>
       </c>
       <c r="E10" s="22">
@@ -1414,7 +1591,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1434,7 +1611,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -1451,7 +1628,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
@@ -1468,7 +1645,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
@@ -1485,7 +1662,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
@@ -1502,7 +1679,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
@@ -1521,7 +1698,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1540,7 +1717,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1559,7 +1736,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1578,7 +1755,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>51</v>
       </c>
@@ -1595,7 +1772,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>52</v>
       </c>
@@ -1612,7 +1789,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>56</v>
       </c>
@@ -1620,11 +1797,11 @@
         <v>54</v>
       </c>
       <c r="C22" s="3">
-        <f>(0.43*(C21)+0.28*(electricity!C3/2.96)+0.18*0.954+0.11*0)</f>
+        <f>(0.43*(C21)+0.28*(ELECTRICITY!C3/2.96)+0.18*0.954+0.11*0)</f>
         <v>0.44359478378378375</v>
       </c>
       <c r="D22" s="3">
-        <f>(0.43*(D21)+0.28*(electricity!D3/2.96)+0.18*0.0149+0.11*0)</f>
+        <f>(0.43*(D21)+0.28*(ELECTRICITY!D3/2.96)+0.18*0.0149+0.11*0)</f>
         <v>6.9929567567567578E-3</v>
       </c>
       <c r="E22" s="18">
@@ -1642,19 +1819,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1671,7 +1848,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1688,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1706,7 +1883,7 @@
         <v>7.407407407407407E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1720,11 +1897,11 @@
         <v>1.759074074074074E-2</v>
       </c>
       <c r="E4" s="21">
-        <f t="shared" ref="E4:E7" si="0">0.2/2.7</f>
+        <f t="shared" ref="E4:E6" si="0">0.2/2.7</f>
         <v>7.407407407407407E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -1744,7 +1921,7 @@
         <v>7.407407407407407E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
@@ -1762,7 +1939,7 @@
         <v>7.407407407407407E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>59</v>
       </c>
@@ -1770,19 +1947,19 @@
         <v>11</v>
       </c>
       <c r="C7" s="14">
-        <f>electricity!C8/4</f>
+        <f>ELECTRICITY!C8/4</f>
         <v>0.87687499999999985</v>
       </c>
       <c r="D7" s="14">
-        <f>electricity!D8/4</f>
+        <f>ELECTRICITY!D8/4</f>
         <v>6.2459374999999998E-2</v>
       </c>
       <c r="E7" s="14">
-        <f>electricity!E8/4</f>
+        <f>ELECTRICITY!E8/4</f>
         <v>6.7500000000000004E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
     </row>
   </sheetData>
@@ -1796,15 +1973,15 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.59765625" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1821,7 +1998,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1838,7 +2015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>46</v>
       </c>
@@ -1855,7 +2032,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>43</v>
       </c>
@@ -1872,7 +2049,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -1889,7 +2066,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>44</v>
       </c>
@@ -1908,7 +2085,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>45</v>
       </c>
@@ -1927,7 +2104,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>58</v>
       </c>
@@ -1935,11 +2112,11 @@
         <v>29</v>
       </c>
       <c r="C8" s="21">
-        <f>heating!C5/0.4</f>
+        <f>HEATING!C5/0.4</f>
         <v>3.5074999999999994</v>
       </c>
       <c r="D8" s="21">
-        <f>heating!D5/0.4</f>
+        <f>HEATING!D5/0.4</f>
         <v>0.24983749999999999</v>
       </c>
       <c r="E8" s="21">

--- a/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
+++ b/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DHW" sheetId="4" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="66">
   <si>
     <t>Description</t>
   </si>
@@ -128,9 +128,6 @@
     <t>T5</t>
   </si>
   <si>
-    <t>heatpump- Soil/water</t>
-  </si>
-  <si>
     <t>heatpump - air-air</t>
   </si>
   <si>
@@ -275,37 +272,22 @@
     <t>EFF</t>
   </si>
   <si>
-    <t>OIL</t>
-  </si>
-  <si>
-    <t>COAL</t>
-  </si>
-  <si>
-    <t>GAS</t>
-  </si>
-  <si>
-    <t>WOOD</t>
-  </si>
-  <si>
     <t>ELECTRICITY</t>
   </si>
   <si>
     <t>SOURCE</t>
   </si>
   <si>
-    <t>SOIL</t>
-  </si>
-  <si>
-    <t>AIR</t>
-  </si>
-  <si>
-    <t>WATER</t>
-  </si>
-  <si>
-    <t>SUN</t>
-  </si>
-  <si>
     <t>DH</t>
+  </si>
+  <si>
+    <t>FUEL</t>
+  </si>
+  <si>
+    <t>RENEWABLE</t>
+  </si>
+  <si>
+    <t>DC</t>
   </si>
 </sst>
 </file>
@@ -364,7 +346,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -387,17 +369,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -470,13 +441,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -830,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,10 +824,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -865,20 +836,20 @@
         <v>2</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="27">
+        <v>14</v>
+      </c>
+      <c r="D2" s="26">
         <v>0</v>
       </c>
       <c r="E2" s="11">
@@ -893,15 +864,15 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="28">
+        <v>63</v>
+      </c>
+      <c r="D3" s="27">
         <v>0.8</v>
       </c>
       <c r="E3" s="3">
@@ -918,15 +889,15 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="28">
+      <c r="C4" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="27">
         <v>0.6</v>
       </c>
       <c r="E4" s="3">
@@ -943,15 +914,15 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="27">
         <v>0.8</v>
       </c>
       <c r="E5" s="3">
@@ -968,15 +939,15 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="28">
+        <v>60</v>
+      </c>
+      <c r="D6" s="27">
         <v>0.9</v>
       </c>
       <c r="E6" s="3">
@@ -993,15 +964,15 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="28">
+      <c r="C7" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="27">
         <v>0.6</v>
       </c>
       <c r="E7" s="13">
@@ -1018,15 +989,15 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="28">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="27">
         <v>4</v>
       </c>
       <c r="E8" s="3">
@@ -1043,15 +1014,15 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="28">
+        <v>64</v>
+      </c>
+      <c r="D9" s="27">
         <v>0.7</v>
       </c>
       <c r="E9" s="3">
@@ -1068,15 +1039,15 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="28">
+        <v>60</v>
+      </c>
+      <c r="D10" s="27">
         <v>2.7</v>
       </c>
       <c r="E10" s="3">
@@ -1094,15 +1065,15 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="28">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="27">
         <v>3</v>
       </c>
       <c r="E11" s="3">
@@ -1120,15 +1091,15 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="28">
+        <v>62</v>
+      </c>
+      <c r="D12" s="27">
         <v>0.6</v>
       </c>
       <c r="E12" s="3">
@@ -1143,15 +1114,15 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="28">
+        <v>62</v>
+      </c>
+      <c r="D13" s="27">
         <v>0.6</v>
       </c>
       <c r="E13" s="3">
@@ -1166,15 +1137,15 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="28">
+        <v>62</v>
+      </c>
+      <c r="D14" s="27">
         <v>0.6</v>
       </c>
       <c r="E14" s="3">
@@ -1189,15 +1160,15 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="28">
+        <v>62</v>
+      </c>
+      <c r="D15" s="27">
         <v>0.6</v>
       </c>
       <c r="E15" s="3">
@@ -1212,15 +1183,15 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="28">
+        <v>36</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="27">
         <v>0.6</v>
       </c>
       <c r="E16" s="3">
@@ -1237,15 +1208,15 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="28">
+        <v>37</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="27">
         <v>0.6</v>
       </c>
       <c r="E17" s="12">
@@ -1262,15 +1233,15 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="28">
+        <v>62</v>
+      </c>
+      <c r="D18" s="27">
         <v>0.6</v>
       </c>
       <c r="E18" s="12">
@@ -1287,15 +1258,15 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="28">
+        <v>62</v>
+      </c>
+      <c r="D19" s="27">
         <v>0.6</v>
       </c>
       <c r="E19" s="12">
@@ -1312,15 +1283,15 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="28">
+        <v>62</v>
+      </c>
+      <c r="D20" s="27">
         <v>0.6</v>
       </c>
       <c r="E20" s="12">
@@ -1335,15 +1306,15 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="28">
+        <v>62</v>
+      </c>
+      <c r="D21" s="27">
         <v>0.6</v>
       </c>
       <c r="E21" s="12">
@@ -1358,15 +1329,15 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="28">
+        <v>62</v>
+      </c>
+      <c r="D22" s="27">
         <v>0.6</v>
       </c>
       <c r="E22" s="3">
@@ -1418,12 +1389,12 @@
         <v>2</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>6</v>
@@ -1440,7 +1411,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>7</v>
@@ -1459,7 +1430,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>8</v>
@@ -1478,7 +1449,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>9</v>
@@ -1497,7 +1468,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>10</v>
@@ -1516,7 +1487,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>11</v>
@@ -1535,10 +1506,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3">
         <f>0.695*1.15</f>
@@ -1554,10 +1525,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3">
         <f>1.15*0.241</f>
@@ -1573,10 +1544,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3">
         <f>ELECTRICITY!C3*1.15/2.7</f>
@@ -1593,10 +1564,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3">
         <f>0.795*1.15</f>
@@ -1613,10 +1584,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3">
         <v>1.55</v>
@@ -1630,10 +1601,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -1647,10 +1618,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="3">
         <v>1.68</v>
@@ -1664,10 +1635,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="3">
         <v>0.64100000000000001</v>
@@ -1681,10 +1652,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="3">
         <f>C9*0.8</f>
@@ -1700,10 +1671,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="3">
         <f>C9*0.3+C5*0.7</f>
@@ -1719,10 +1690,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="3">
         <f>C9*0.6+C12*0.4</f>
@@ -1738,10 +1709,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="3">
         <f>C9*0.6+C13*0.3+C12*0.1</f>
@@ -1757,10 +1728,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="3">
         <v>1.2761111111111112</v>
@@ -1774,10 +1745,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="3">
         <v>5.3699999999999998E-2</v>
@@ -1791,10 +1762,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="3">
         <f>(0.43*(C21)+0.28*(ELECTRICITY!C3/2.96)+0.18*0.954+0.11*0)</f>
@@ -1817,21 +1788,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1839,128 +1811,125 @@
         <v>3</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5">
-        <v>0</v>
+      <c r="C2" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="14">
-        <v>0.7992499999999999</v>
+        <v>8</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>60</v>
       </c>
       <c r="D3" s="14">
-        <v>1.8860000000000002E-2</v>
-      </c>
-      <c r="E3" s="21">
-        <f>0.2/2.7</f>
+        <v>1.120185185185185</v>
+      </c>
+      <c r="E3" s="14">
+        <v>1.759074074074074E-2</v>
+      </c>
+      <c r="F3" s="21">
+        <f t="shared" ref="F3:F5" si="0">0.2/2.7</f>
         <v>7.407407407407407E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="14">
-        <v>1.120185185185185</v>
+        <v>9</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>60</v>
       </c>
       <c r="D4" s="14">
-        <v>1.759074074074074E-2</v>
-      </c>
-      <c r="E4" s="21">
-        <f t="shared" ref="E4:E6" si="0">0.2/2.7</f>
-        <v>7.407407407407407E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="14">
-        <f>C6*0.8</f>
+        <f>D5*0.8</f>
         <v>0.12487999999999999</v>
       </c>
-      <c r="D5" s="14">
-        <f>D6*0.8</f>
+      <c r="E4" s="14">
+        <f>E5*0.8</f>
         <v>1.956260204185213E-3</v>
       </c>
-      <c r="E5" s="21">
+      <c r="F4" s="21">
         <f t="shared" si="0"/>
         <v>7.407407407407407E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="7" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="14">
         <v>0.15609999999999999</v>
       </c>
-      <c r="D6" s="14">
+      <c r="E5" s="14">
         <v>2.4453252552315164E-3</v>
       </c>
-      <c r="E6" s="21">
+      <c r="F5" s="21">
         <f t="shared" si="0"/>
         <v>7.407407407407407E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="25" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C6" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="14">
         <f>ELECTRICITY!C8/4</f>
         <v>0.87687499999999985</v>
       </c>
-      <c r="D7" s="14">
+      <c r="E6" s="14">
         <f>ELECTRICITY!D8/4</f>
         <v>6.2459374999999998E-2</v>
       </c>
-      <c r="E7" s="14">
+      <c r="F6" s="14">
         <f>ELECTRICITY!E8/4</f>
         <v>6.7500000000000004E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
@@ -1995,7 +1964,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2017,7 +1986,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>7</v>
@@ -2034,7 +2003,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>8</v>
@@ -2068,7 +2037,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>10</v>
@@ -2087,7 +2056,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>11</v>
@@ -2106,10 +2075,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="21">
         <f>HEATING!C5/0.4</f>

--- a/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
+++ b/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DHW" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="COOLING" sheetId="2" r:id="rId3"/>
     <sheet name="ELECTRICITY" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="66">
   <si>
     <t>Description</t>
   </si>
@@ -802,7 +802,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D8"/>
+      <selection activeCell="D1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,421 +1361,488 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="11">
-        <v>0</v>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D2" s="11">
         <v>0</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="3">
         <f>1.3*1.15</f>
         <v>1.4949999999999999</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <f>1.15*0.0886</f>
         <v>0.10188999999999999</v>
       </c>
-      <c r="E3" s="18">
+      <c r="F3" s="18">
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="3">
         <f>1.68*1.15/0.8</f>
         <v>2.4149999999999996</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <f>1.15*0.12/0.8</f>
         <v>0.17249999999999996</v>
       </c>
-      <c r="E4" s="18">
+      <c r="F4" s="18">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="3">
         <f>1.22*1.15</f>
         <v>1.4029999999999998</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <f>1.15*0.0869</f>
         <v>9.9934999999999996E-2</v>
       </c>
-      <c r="E5" s="18">
+      <c r="F5" s="18">
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="3">
         <f>2.63*0.9*1.15</f>
         <v>2.7220499999999999</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <f>1.15*0.0413*0.9</f>
         <v>4.2745500000000006E-2</v>
       </c>
-      <c r="E6" s="18">
+      <c r="F6" s="18">
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="3">
         <f>0.2773328387*1.15</f>
         <v>0.31893276450499997</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <f>1.15*0.014000495</f>
         <v>1.6100569249999998E-2</v>
       </c>
-      <c r="E7" s="18">
+      <c r="F7" s="18">
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="3">
         <f>0.695*1.15</f>
         <v>0.7992499999999999</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <f>1.15*0.0164</f>
         <v>1.8860000000000002E-2</v>
       </c>
-      <c r="E8" s="18">
+      <c r="F8" s="18">
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="3">
         <f>1.15*0.241</f>
         <v>0.27714999999999995</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
         <f>1.15*0.0112</f>
         <v>1.2879999999999999E-2</v>
       </c>
-      <c r="E9" s="18">
+      <c r="F9" s="18">
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="3">
         <f>ELECTRICITY!C3*1.15/2.7</f>
         <v>1.120185185185185</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="3">
         <f>ELECTRICITY!D3*1.15/2.7</f>
         <v>1.759074074074074E-2</v>
       </c>
-      <c r="E10" s="22">
+      <c r="F10" s="22">
         <f>0.2/4</f>
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="3">
         <f>0.795*1.15</f>
         <v>0.91425000000000001</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="3">
         <f>1.15*0.0179</f>
         <v>2.0584999999999999E-2</v>
       </c>
-      <c r="E11" s="22">
+      <c r="F11" s="22">
         <f>0.2/4</f>
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="3">
         <v>1.55</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="3">
         <v>8.6900000000000005E-2</v>
       </c>
-      <c r="E12" s="23">
+      <c r="F12" s="23">
         <v>0.08</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E13" s="3">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="E13" s="18">
+      <c r="F13" s="18">
         <v>0.08</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="3">
         <v>1.68</v>
       </c>
-      <c r="D14" s="3">
+      <c r="E14" s="3">
         <v>0.112</v>
       </c>
-      <c r="E14" s="18">
+      <c r="F14" s="18">
         <v>0.08</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="3">
         <v>0.64100000000000001</v>
       </c>
-      <c r="D15" s="3">
+      <c r="E15" s="3">
         <v>3.7699999999999997E-2</v>
       </c>
-      <c r="E15" s="18">
+      <c r="F15" s="18">
         <v>0.08</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="3">
-        <f>C9*0.8</f>
-        <v>0.22171999999999997</v>
+      <c r="C16" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="D16" s="3">
         <f>D9*0.8</f>
+        <v>0.22171999999999997</v>
+      </c>
+      <c r="E16" s="3">
+        <f>E9*0.8</f>
         <v>1.0304000000000001E-2</v>
       </c>
-      <c r="E16" s="18">
+      <c r="F16" s="18">
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="3">
-        <f>C9*0.3+C5*0.7</f>
-        <v>1.0652449999999998</v>
+      <c r="C17" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="D17" s="3">
         <f>D9*0.3+D5*0.7</f>
+        <v>1.0652449999999998</v>
+      </c>
+      <c r="E17" s="3">
+        <f>E9*0.3+E5*0.7</f>
         <v>7.3818499999999981E-2</v>
       </c>
-      <c r="E17" s="18">
+      <c r="F17" s="18">
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="3">
-        <f>C9*0.6+C12*0.4</f>
-        <v>0.78629000000000004</v>
+      <c r="C18" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="D18" s="3">
         <f>D9*0.6+D12*0.4</f>
+        <v>0.78629000000000004</v>
+      </c>
+      <c r="E18" s="3">
+        <f>E9*0.6+E12*0.4</f>
         <v>4.2488000000000005E-2</v>
       </c>
-      <c r="E18" s="18">
+      <c r="F18" s="18">
         <v>0.08</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="3">
-        <f>C9*0.6+C13*0.3+C12*0.1</f>
-        <v>0.62129000000000001</v>
+      <c r="C19" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="D19" s="3">
         <f>D9*0.6+D13*0.3+D12*0.1</f>
+        <v>0.62129000000000001</v>
+      </c>
+      <c r="E19" s="3">
+        <f>E9*0.6+E13*0.3+E12*0.1</f>
         <v>2.3168000000000001E-2</v>
       </c>
-      <c r="E19" s="18">
+      <c r="F19" s="18">
         <v>0.08</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>50</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="3">
         <v>1.2761111111111112</v>
       </c>
-      <c r="D20" s="3">
+      <c r="E20" s="3">
         <v>4.6404444444444443E-2</v>
       </c>
-      <c r="E20" s="18">
+      <c r="F20" s="18">
         <v>0.08</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>51</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="3">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="D21" s="3">
+      <c r="E21" s="3">
         <v>9.3999999999999997E-4</v>
       </c>
-      <c r="E21" s="18">
+      <c r="F21" s="18">
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>55</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="3">
-        <f>(0.43*(C21)+0.28*(ELECTRICITY!C3/2.96)+0.18*0.954+0.11*0)</f>
+      <c r="C22" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="3">
+        <f>(0.43*(D21)+0.28*(ELECTRICITY!C3/2.96)+0.18*0.954+0.11*0)</f>
         <v>0.44359478378378375</v>
       </c>
-      <c r="D22" s="3">
-        <f>(0.43*(D21)+0.28*(ELECTRICITY!D3/2.96)+0.18*0.0149+0.11*0)</f>
+      <c r="E22" s="3">
+        <f>(0.43*(E21)+0.28*(ELECTRICITY!D3/2.96)+0.18*0.0149+0.11*0)</f>
         <v>6.9929567567567578E-3</v>
       </c>
-      <c r="E22" s="18">
+      <c r="F22" s="18">
         <v>0.08</v>
       </c>
     </row>
@@ -1790,7 +1857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -2081,11 +2148,11 @@
         <v>28</v>
       </c>
       <c r="C8" s="21">
-        <f>HEATING!C5/0.4</f>
+        <f>HEATING!D5/0.4</f>
         <v>3.5074999999999994</v>
       </c>
       <c r="D8" s="21">
-        <f>HEATING!D5/0.4</f>
+        <f>HEATING!E5/0.4</f>
         <v>0.24983749999999999</v>
       </c>
       <c r="E8" s="21">

--- a/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
+++ b/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JimenoF\Documents\Github\CityEnergyAnalyst\cea\databases\SIN\lifecycle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JimenoF\Documents\Github\CityEnergyAnalyst\cea\databases\CH\lifecycle\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="66">
   <si>
     <t>Description</t>
   </si>
@@ -281,13 +281,13 @@
     <t>DH</t>
   </si>
   <si>
-    <t>FUEL</t>
-  </si>
-  <si>
-    <t>RENEWABLE</t>
-  </si>
-  <si>
     <t>DC</t>
+  </si>
+  <si>
+    <t>BOILER</t>
+  </si>
+  <si>
+    <t>SC</t>
   </si>
 </sst>
 </file>
@@ -802,7 +802,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="C1:D1048576"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,7 +870,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D3" s="27">
         <v>0.8</v>
@@ -895,7 +895,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4" s="27">
         <v>0.6</v>
@@ -920,7 +920,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D5" s="27">
         <v>0.8</v>
@@ -970,7 +970,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D7" s="27">
         <v>0.6</v>
@@ -1020,7 +1020,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9" s="27">
         <v>0.7</v>
@@ -1189,7 +1189,7 @@
         <v>36</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D16" s="27">
         <v>0.6</v>
@@ -1214,7 +1214,7 @@
         <v>37</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D17" s="27">
         <v>0.6</v>
@@ -1361,10 +1361,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,11 +1372,12 @@
     <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1386,17 +1387,20 @@
       <c r="C1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1406,17 +1410,20 @@
       <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="26">
         <v>0</v>
       </c>
       <c r="E2" s="11">
         <v>0</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -1424,21 +1431,24 @@
         <v>7</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="3">
+        <v>64</v>
+      </c>
+      <c r="D3" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="E3" s="3">
         <f>1.3*1.15</f>
         <v>1.4949999999999999</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <f>1.15*0.0886</f>
         <v>0.10188999999999999</v>
       </c>
-      <c r="F3" s="18">
+      <c r="G3" s="18">
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1446,21 +1456,24 @@
         <v>8</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="3">
+        <v>64</v>
+      </c>
+      <c r="D4" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="3">
         <f>1.68*1.15/0.8</f>
         <v>2.4149999999999996</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <f>1.15*0.12/0.8</f>
         <v>0.17249999999999996</v>
       </c>
-      <c r="F4" s="18">
+      <c r="G4" s="18">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -1468,21 +1481,24 @@
         <v>9</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="3">
+        <v>64</v>
+      </c>
+      <c r="D5" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="E5" s="3">
         <f>1.22*1.15</f>
         <v>1.4029999999999998</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <f>1.15*0.0869</f>
         <v>9.9934999999999996E-2</v>
       </c>
-      <c r="F5" s="18">
+      <c r="G5" s="18">
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1492,19 +1508,22 @@
       <c r="C6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="27">
+        <v>0.9</v>
+      </c>
+      <c r="E6" s="3">
         <f>2.63*0.9*1.15</f>
         <v>2.7220499999999999</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <f>1.15*0.0413*0.9</f>
         <v>4.2745500000000006E-2</v>
       </c>
-      <c r="F6" s="18">
+      <c r="G6" s="18">
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -1512,21 +1531,24 @@
         <v>11</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="3">
+        <v>64</v>
+      </c>
+      <c r="D7" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="E7" s="13">
         <f>0.2773328387*1.15</f>
         <v>0.31893276450499997</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <f>1.15*0.014000495</f>
         <v>1.6100569249999998E-2</v>
       </c>
-      <c r="F7" s="18">
+      <c r="G7" s="18">
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1536,19 +1558,22 @@
       <c r="C8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="27">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
         <f>0.695*1.15</f>
         <v>0.7992499999999999</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <f>1.15*0.0164</f>
         <v>1.8860000000000002E-2</v>
       </c>
-      <c r="F8" s="18">
+      <c r="G8" s="18">
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1556,21 +1581,24 @@
         <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="3">
+        <v>65</v>
+      </c>
+      <c r="D9" s="27">
+        <v>0.7</v>
+      </c>
+      <c r="E9" s="3">
         <f>1.15*0.241</f>
         <v>0.27714999999999995</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <f>1.15*0.0112</f>
         <v>1.2879999999999999E-2</v>
       </c>
-      <c r="F9" s="18">
+      <c r="G9" s="18">
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1580,20 +1608,23 @@
       <c r="C10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="27">
+        <v>2.7</v>
+      </c>
+      <c r="E10" s="3">
         <f>ELECTRICITY!C3*1.15/2.7</f>
         <v>1.120185185185185</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <f>ELECTRICITY!D3*1.15/2.7</f>
         <v>1.759074074074074E-2</v>
       </c>
-      <c r="F10" s="22">
+      <c r="G10" s="22">
         <f>0.2/4</f>
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1603,20 +1634,23 @@
       <c r="C11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="27">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3">
         <f>0.795*1.15</f>
         <v>0.91425000000000001</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <f>1.15*0.0179</f>
         <v>2.0584999999999999E-2</v>
       </c>
-      <c r="F11" s="22">
+      <c r="G11" s="22">
         <f>0.2/4</f>
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -1626,17 +1660,20 @@
       <c r="C12" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="E12" s="3">
         <v>1.55</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>8.6900000000000005E-2</v>
       </c>
-      <c r="F12" s="23">
+      <c r="G12" s="23">
         <v>0.08</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -1646,17 +1683,20 @@
       <c r="C13" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="E13" s="3">
         <v>1</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F13" s="3">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="F13" s="18">
+      <c r="G13" s="18">
         <v>0.08</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
@@ -1666,17 +1706,20 @@
       <c r="C14" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="E14" s="3">
         <v>1.68</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>0.112</v>
       </c>
-      <c r="F14" s="18">
+      <c r="G14" s="18">
         <v>0.08</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
@@ -1686,17 +1729,20 @@
       <c r="C15" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="E15" s="3">
         <v>0.64100000000000001</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3.7699999999999997E-2</v>
       </c>
-      <c r="F15" s="18">
+      <c r="G15" s="18">
         <v>0.08</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
@@ -1704,21 +1750,24 @@
         <v>36</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="3">
-        <f>D9*0.8</f>
-        <v>0.22171999999999997</v>
+        <v>65</v>
+      </c>
+      <c r="D16" s="27">
+        <v>0.6</v>
       </c>
       <c r="E16" s="3">
         <f>E9*0.8</f>
+        <v>0.22171999999999997</v>
+      </c>
+      <c r="F16" s="3">
+        <f>F9*0.8</f>
         <v>1.0304000000000001E-2</v>
       </c>
-      <c r="F16" s="18">
+      <c r="G16" s="18">
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1726,21 +1775,24 @@
         <v>37</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="3">
-        <f>D9*0.3+D5*0.7</f>
+        <v>65</v>
+      </c>
+      <c r="D17" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="E17" s="12">
+        <f>E9*0.3+E5*0.7</f>
         <v>1.0652449999999998</v>
       </c>
-      <c r="E17" s="3">
-        <f>E9*0.3+E5*0.7</f>
+      <c r="F17" s="3">
+        <f>F9*0.3+F5*0.7</f>
         <v>7.3818499999999981E-2</v>
       </c>
-      <c r="F17" s="18">
+      <c r="G17" s="18">
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -1750,19 +1802,22 @@
       <c r="C18" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="3">
-        <f>D9*0.6+D12*0.4</f>
+      <c r="D18" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="E18" s="12">
+        <f>E9*0.6+E12*0.4</f>
         <v>0.78629000000000004</v>
       </c>
-      <c r="E18" s="3">
-        <f>E9*0.6+E12*0.4</f>
+      <c r="F18" s="3">
+        <f>F9*0.6+F12*0.4</f>
         <v>4.2488000000000005E-2</v>
       </c>
-      <c r="F18" s="18">
+      <c r="G18" s="18">
         <v>0.08</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1772,19 +1827,22 @@
       <c r="C19" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="3">
-        <f>D9*0.6+D13*0.3+D12*0.1</f>
+      <c r="D19" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="E19" s="12">
+        <f>E9*0.6+E13*0.3+E12*0.1</f>
         <v>0.62129000000000001</v>
       </c>
-      <c r="E19" s="3">
-        <f>E9*0.6+E13*0.3+E12*0.1</f>
+      <c r="F19" s="3">
+        <f>F9*0.6+F13*0.3+F12*0.1</f>
         <v>2.3168000000000001E-2</v>
       </c>
-      <c r="F19" s="18">
+      <c r="G19" s="18">
         <v>0.08</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>50</v>
       </c>
@@ -1794,17 +1852,20 @@
       <c r="C20" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="E20" s="12">
         <v>1.2761111111111112</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4.6404444444444443E-2</v>
       </c>
-      <c r="F20" s="18">
+      <c r="G20" s="18">
         <v>0.08</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>51</v>
       </c>
@@ -1814,17 +1875,20 @@
       <c r="C21" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="E21" s="12">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>9.3999999999999997E-4</v>
       </c>
-      <c r="F21" s="18">
+      <c r="G21" s="18">
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>55</v>
       </c>
@@ -1834,15 +1898,18 @@
       <c r="C22" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="3">
-        <f>(0.43*(D21)+0.28*(ELECTRICITY!C3/2.96)+0.18*0.954+0.11*0)</f>
+      <c r="D22" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="E22" s="3">
+        <f>(0.43*(E21)+0.28*(ELECTRICITY!C3/2.96)+0.18*0.954+0.11*0)</f>
         <v>0.44359478378378375</v>
       </c>
-      <c r="E22" s="3">
-        <f>(0.43*(E21)+0.28*(ELECTRICITY!D3/2.96)+0.18*0.0149+0.11*0)</f>
+      <c r="F22" s="3">
+        <f>(0.43*(F21)+0.28*(ELECTRICITY!D3/2.96)+0.18*0.0149+0.11*0)</f>
         <v>6.9929567567567578E-3</v>
       </c>
-      <c r="F22" s="18">
+      <c r="G22" s="18">
         <v>0.08</v>
       </c>
     </row>
@@ -1858,7 +1925,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1962,7 +2029,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D5" s="14">
         <v>0.15609999999999999</v>
@@ -1983,11 +2050,11 @@
         <v>11</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D6" s="14">
         <f>ELECTRICITY!C8/4</f>
-        <v>0.87687499999999985</v>
+        <v>0.5</v>
       </c>
       <c r="E6" s="14">
         <f>ELECTRICITY!D8/4</f>
@@ -2149,10 +2216,10 @@
       </c>
       <c r="C8" s="21">
         <f>HEATING!D5/0.4</f>
-        <v>3.5074999999999994</v>
+        <v>2</v>
       </c>
       <c r="D8" s="21">
-        <f>HEATING!E5/0.4</f>
+        <f>HEATING!F5/0.4</f>
         <v>0.24983749999999999</v>
       </c>
       <c r="E8" s="21">

--- a/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
+++ b/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JimenoF\Documents\Github\CityEnergyAnalyst\cea\databases\CH\lifecycle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JimenoF\Documents\Github\CityEnergyAnalyst\cea\databases\SIN\lifecycle\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="74">
   <si>
     <t>Description</t>
   </si>
@@ -269,25 +269,49 @@
     <t>district cooling network - air-air</t>
   </si>
   <si>
-    <t>EFF</t>
-  </si>
-  <si>
-    <t>ELECTRICITY</t>
-  </si>
-  <si>
-    <t>SOURCE</t>
-  </si>
-  <si>
     <t>DH</t>
   </si>
   <si>
     <t>DC</t>
   </si>
   <si>
-    <t>BOILER</t>
-  </si>
-  <si>
-    <t>SC</t>
+    <t>source_hs</t>
+  </si>
+  <si>
+    <t>eff_hs</t>
+  </si>
+  <si>
+    <t>source_cs</t>
+  </si>
+  <si>
+    <t>eff_cs</t>
+  </si>
+  <si>
+    <t>eff_el</t>
+  </si>
+  <si>
+    <t>source_el</t>
+  </si>
+  <si>
+    <t>GRID</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>PVT</t>
+  </si>
+  <si>
+    <t>source_dhw</t>
+  </si>
+  <si>
+    <t>eff_dhw</t>
+  </si>
+  <si>
+    <t>FUEL</t>
+  </si>
+  <si>
+    <t>SOLAR</t>
   </si>
 </sst>
 </file>
@@ -802,7 +826,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,7 +834,7 @@
     <col min="1" max="1" width="44.28515625" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5703125" style="18" bestFit="1" customWidth="1"/>
@@ -824,10 +848,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -870,7 +894,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D3" s="27">
         <v>0.8</v>
@@ -895,7 +919,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D4" s="27">
         <v>0.6</v>
@@ -920,7 +944,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D5" s="27">
         <v>0.8</v>
@@ -945,7 +969,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D6" s="27">
         <v>0.9</v>
@@ -970,7 +994,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D7" s="27">
         <v>0.6</v>
@@ -995,7 +1019,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D8" s="27">
         <v>4</v>
@@ -1020,7 +1044,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D9" s="27">
         <v>0.7</v>
@@ -1045,17 +1069,17 @@
         <v>30</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D10" s="27">
         <v>2.7</v>
       </c>
       <c r="E10" s="3">
-        <f>ELECTRICITY!C3*1.15/2.7</f>
+        <f>ELECTRICITY!E3*1.15/2.7</f>
         <v>1.120185185185185</v>
       </c>
       <c r="F10" s="3">
-        <f>1.15*ELECTRICITY!D3/2.7</f>
+        <f>1.15*ELECTRICITY!F3/2.7</f>
         <v>1.759074074074074E-2</v>
       </c>
       <c r="G10" s="22">
@@ -1071,7 +1095,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D11" s="27">
         <v>3</v>
@@ -1097,7 +1121,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D12" s="27">
         <v>0.6</v>
@@ -1120,7 +1144,7 @@
         <v>33</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D13" s="27">
         <v>0.6</v>
@@ -1143,7 +1167,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D14" s="27">
         <v>0.6</v>
@@ -1166,7 +1190,7 @@
         <v>35</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D15" s="27">
         <v>0.6</v>
@@ -1189,7 +1213,7 @@
         <v>36</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D16" s="27">
         <v>0.6</v>
@@ -1214,7 +1238,7 @@
         <v>37</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D17" s="27">
         <v>0.6</v>
@@ -1239,7 +1263,7 @@
         <v>38</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D18" s="27">
         <v>0.6</v>
@@ -1264,7 +1288,7 @@
         <v>39</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D19" s="27">
         <v>0.6</v>
@@ -1289,7 +1313,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D20" s="27">
         <v>0.6</v>
@@ -1312,7 +1336,7 @@
         <v>41</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D21" s="27">
         <v>0.6</v>
@@ -1335,17 +1359,17 @@
         <v>53</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D22" s="27">
         <v>0.6</v>
       </c>
       <c r="E22" s="3">
-        <f>(0.43*(E21)+0.28*(ELECTRICITY!C3/2.96)+0.18*0.954+0.11*0)</f>
+        <f>(0.43*(E21)+0.28*(ELECTRICITY!E3/2.96)+0.18*0.954+0.11*0)</f>
         <v>0.44359478378378375</v>
       </c>
       <c r="F22" s="3">
-        <f>(0.43*(F21)+0.28*(ELECTRICITY!D3/2.96)+0.18*0.0149+0.11*0)</f>
+        <f>(0.43*(F21)+0.28*(ELECTRICITY!F3/2.96)+0.18*0.0149+0.11*0)</f>
         <v>6.9929567567567578E-3</v>
       </c>
       <c r="G22" s="18">
@@ -1364,7 +1388,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1388,7 +1412,7 @@
         <v>61</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>1</v>
@@ -1431,7 +1455,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D3" s="27">
         <v>0.8</v>
@@ -1456,7 +1480,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D4" s="27">
         <v>0.6</v>
@@ -1481,7 +1505,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D5" s="27">
         <v>0.8</v>
@@ -1506,7 +1530,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D6" s="27">
         <v>0.9</v>
@@ -1531,7 +1555,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D7" s="27">
         <v>0.6</v>
@@ -1556,7 +1580,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D8" s="27">
         <v>4</v>
@@ -1581,7 +1605,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D9" s="27">
         <v>0.7</v>
@@ -1606,17 +1630,17 @@
         <v>30</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D10" s="27">
         <v>2.7</v>
       </c>
       <c r="E10" s="3">
-        <f>ELECTRICITY!C3*1.15/2.7</f>
+        <f>ELECTRICITY!E3*1.15/2.7</f>
         <v>1.120185185185185</v>
       </c>
       <c r="F10" s="3">
-        <f>ELECTRICITY!D3*1.15/2.7</f>
+        <f>ELECTRICITY!F3*1.15/2.7</f>
         <v>1.759074074074074E-2</v>
       </c>
       <c r="G10" s="22">
@@ -1632,7 +1656,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D11" s="27">
         <v>3</v>
@@ -1658,7 +1682,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D12" s="27">
         <v>0.6</v>
@@ -1681,7 +1705,7 @@
         <v>33</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D13" s="27">
         <v>0.6</v>
@@ -1704,7 +1728,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D14" s="27">
         <v>0.6</v>
@@ -1727,7 +1751,7 @@
         <v>35</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D15" s="27">
         <v>0.6</v>
@@ -1750,7 +1774,7 @@
         <v>36</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D16" s="27">
         <v>0.6</v>
@@ -1775,7 +1799,7 @@
         <v>37</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D17" s="27">
         <v>0.6</v>
@@ -1800,7 +1824,7 @@
         <v>38</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D18" s="27">
         <v>0.6</v>
@@ -1825,7 +1849,7 @@
         <v>39</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D19" s="27">
         <v>0.6</v>
@@ -1850,7 +1874,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D20" s="27">
         <v>0.6</v>
@@ -1873,7 +1897,7 @@
         <v>41</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D21" s="27">
         <v>0.6</v>
@@ -1896,17 +1920,17 @@
         <v>53</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D22" s="27">
         <v>0.6</v>
       </c>
       <c r="E22" s="3">
-        <f>(0.43*(E21)+0.28*(ELECTRICITY!C3/2.96)+0.18*0.954+0.11*0)</f>
+        <f>(0.43*(E21)+0.28*(ELECTRICITY!E3/2.96)+0.18*0.954+0.11*0)</f>
         <v>0.44359478378378375</v>
       </c>
       <c r="F22" s="3">
-        <f>(0.43*(F21)+0.28*(ELECTRICITY!D3/2.96)+0.18*0.0149+0.11*0)</f>
+        <f>(0.43*(F21)+0.28*(ELECTRICITY!F3/2.96)+0.18*0.0149+0.11*0)</f>
         <v>6.9929567567567578E-3</v>
       </c>
       <c r="G22" s="18">
@@ -1922,10 +1946,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1933,11 +1957,12 @@
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1945,19 +1970,22 @@
         <v>3</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1967,17 +1995,20 @@
       <c r="C2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="14">
         <v>0</v>
       </c>
       <c r="E2" s="5">
         <v>0</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1985,20 +2016,23 @@
         <v>8</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="14">
+        <v>67</v>
+      </c>
+      <c r="D3" s="28">
+        <v>2.7</v>
+      </c>
+      <c r="E3" s="14">
         <v>1.120185185185185</v>
       </c>
-      <c r="E3" s="14">
+      <c r="F3" s="14">
         <v>1.759074074074074E-2</v>
       </c>
-      <c r="F3" s="21">
-        <f t="shared" ref="F3:F5" si="0">0.2/2.7</f>
+      <c r="G3" s="21">
+        <f t="shared" ref="G3:G5" si="0">0.2/2.7</f>
         <v>7.407407407407407E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -2006,22 +2040,25 @@
         <v>9</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="14">
-        <f>D5*0.8</f>
-        <v>0.12487999999999999</v>
+        <v>67</v>
+      </c>
+      <c r="D4" s="28">
+        <v>3</v>
       </c>
       <c r="E4" s="14">
         <f>E5*0.8</f>
+        <v>0.12487999999999999</v>
+      </c>
+      <c r="F4" s="14">
+        <f>F5*0.8</f>
         <v>1.956260204185213E-3</v>
       </c>
-      <c r="F4" s="21">
+      <c r="G4" s="21">
         <f t="shared" si="0"/>
         <v>7.407407407407407E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
@@ -2029,20 +2066,23 @@
         <v>10</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D5" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="E5" s="14">
         <v>0.15609999999999999</v>
       </c>
-      <c r="E5" s="14">
+      <c r="F5" s="14">
         <v>2.4453252552315164E-3</v>
       </c>
-      <c r="F5" s="21">
+      <c r="G5" s="21">
         <f t="shared" si="0"/>
         <v>7.407407407407407E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>58</v>
       </c>
@@ -2050,18 +2090,21 @@
         <v>11</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="14">
-        <f>ELECTRICITY!C8/4</f>
+        <v>60</v>
+      </c>
+      <c r="D6" s="28">
+        <v>2.8</v>
+      </c>
+      <c r="E6" s="14">
+        <f>ELECTRICITY!E8/4</f>
         <v>0.5</v>
       </c>
-      <c r="E6" s="14">
-        <f>ELECTRICITY!D8/4</f>
+      <c r="F6" s="14">
+        <f>ELECTRICITY!F8/4</f>
         <v>6.2459374999999998E-2</v>
       </c>
-      <c r="F6" s="14">
-        <f>ELECTRICITY!E8/4</f>
+      <c r="G6" s="14">
+        <f>ELECTRICITY!G8/4</f>
         <v>6.7500000000000004E-2</v>
       </c>
     </row>
@@ -2073,10 +2116,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2084,7 +2127,7 @@
     <col min="1" max="1" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2092,137 +2135,185 @@
         <v>3</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="7">
         <v>0</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="7">
         <v>0</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="E3" s="14">
         <v>2.63</v>
       </c>
-      <c r="D3" s="14">
+      <c r="F3" s="14">
         <v>4.1300000000000003E-2</v>
       </c>
-      <c r="E3" s="21">
+      <c r="G3" s="21">
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="E4" s="14">
         <v>0.27800000000000002</v>
       </c>
-      <c r="D4" s="14">
+      <c r="F4" s="14">
         <v>2.0199999999999999E-2</v>
       </c>
-      <c r="E4" s="24">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="24">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="E5" s="14">
         <v>0.222</v>
       </c>
-      <c r="D5" s="14">
+      <c r="F5" s="14">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="E5" s="24">
+      <c r="G5" s="24">
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14">
-        <f>C4*0.3+C3*0.7</f>
+      <c r="C6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="E6" s="14">
+        <f>E4*0.3+E3*0.7</f>
         <v>1.9243999999999997</v>
       </c>
-      <c r="D6" s="14">
-        <f>D4*0.3+D3*0.7</f>
+      <c r="F6" s="14">
+        <f>F4*0.3+F3*0.7</f>
         <v>3.4970000000000001E-2</v>
       </c>
-      <c r="E6" s="21">
+      <c r="G6" s="21">
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="14">
-        <f>C5*0.3+C3*0.7</f>
+      <c r="C7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="E7" s="14">
+        <f>E5*0.3+E3*0.7</f>
         <v>1.9075999999999997</v>
       </c>
-      <c r="D7" s="14">
-        <f>D5*0.3+D3*0.7</f>
+      <c r="F7" s="14">
+        <f>F5*0.3+F3*0.7</f>
         <v>3.2150000000000005E-2</v>
       </c>
-      <c r="E7" s="21">
+      <c r="G7" s="21">
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="E8" s="21">
         <f>HEATING!D5/0.4</f>
         <v>2</v>
       </c>
-      <c r="D8" s="21">
+      <c r="F8" s="21">
         <f>HEATING!F5/0.4</f>
         <v>0.24983749999999999</v>
       </c>
-      <c r="E8" s="21">
+      <c r="G8" s="21">
         <v>0.27</v>
       </c>
     </row>

--- a/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
+++ b/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260"/>
   </bookViews>
   <sheets>
     <sheet name="DHW" sheetId="4" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="76">
   <si>
     <t>Description</t>
   </si>
@@ -107,9 +107,6 @@
     <t>None</t>
   </si>
   <si>
-    <t>PVT panel - monocrystalline roof top</t>
-  </si>
-  <si>
     <t>T0</t>
   </si>
   <si>
@@ -200,9 +197,6 @@
     <t>T13</t>
   </si>
   <si>
-    <t>T14</t>
-  </si>
-  <si>
     <t>T15</t>
   </si>
   <si>
@@ -224,9 +218,6 @@
     <t>Swiss consumer energy mix 70% + 30% PV</t>
   </si>
   <si>
-    <t>Swiss consumer energy mix  70% + 30% PVT</t>
-  </si>
-  <si>
     <t>Swiss consumer energy mix</t>
   </si>
   <si>
@@ -239,9 +230,6 @@
     <t>district heating - other CHP</t>
   </si>
   <si>
-    <t>photovoltaic thermal</t>
-  </si>
-  <si>
     <t>district heating heat pump - water/water</t>
   </si>
   <si>
@@ -299,19 +287,37 @@
     <t>PV</t>
   </si>
   <si>
-    <t>PVT</t>
-  </si>
-  <si>
     <t>source_dhw</t>
   </si>
   <si>
     <t>eff_dhw</t>
   </si>
   <si>
-    <t>FUEL</t>
-  </si>
-  <si>
     <t>SOLAR</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>OIL</t>
+  </si>
+  <si>
+    <t>COAL</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>WOOD</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>KBOB 2019</t>
   </si>
 </sst>
 </file>
@@ -398,15 +404,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -418,28 +417,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -447,31 +426,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -823,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,24 +814,25 @@
     <col min="1" max="1" width="44.28515625" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>71</v>
+      <c r="C1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -859,521 +840,557 @@
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="G1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="15">
+        <v>0</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="26">
-        <v>0</v>
-      </c>
-      <c r="E2" s="11">
-        <v>0</v>
-      </c>
-      <c r="F2" s="11">
-        <v>0</v>
-      </c>
-      <c r="G2" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="27">
+      <c r="C3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="18">
         <v>0.8</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="6">
         <f>1.3*1.15</f>
         <v>1.4949999999999999</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="6">
         <f>1.15*0.0886</f>
         <v>0.10188999999999999</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="15">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="27">
+      <c r="H3" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="18">
         <v>0.6</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="6">
         <f>1.68*1.15/0.8</f>
         <v>2.4149999999999996</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="6">
         <f>1.15*0.12/0.8</f>
         <v>0.17249999999999996</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="15">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="27">
+      <c r="H4" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="18">
         <v>0.8</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="6">
         <f>1.22*1.15</f>
         <v>1.4029999999999998</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="6">
         <f>1.15*0.0869</f>
         <v>9.9934999999999996E-2</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="15">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="27">
+      <c r="H5" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="18">
         <v>0.9</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="6">
         <f>2.63*0.9*1.15</f>
         <v>2.7220499999999999</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="6">
         <f>1.15*0.0413*0.9</f>
         <v>4.2745500000000006E-2</v>
       </c>
-      <c r="G6" s="18">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="G6" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="18">
         <v>0.6</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="11">
         <f>0.2773328387*1.15</f>
         <v>0.31893276450499997</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="11">
         <f>1.15*0.014000495</f>
         <v>1.6100569249999998E-2</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="15">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="27">
+      <c r="H7" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="18">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="6">
         <f>0.695*1.15</f>
         <v>0.7992499999999999</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="6">
         <f>1.15*0.0164</f>
         <v>1.8860000000000002E-2</v>
       </c>
-      <c r="G8" s="18">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="G8" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="18">
         <v>0.7</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="6">
         <f>1.15*0.241</f>
         <v>0.27714999999999995</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="6">
         <f>1.15*0.0112</f>
         <v>1.2879999999999999E-2</v>
       </c>
-      <c r="G9" s="18">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="27">
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="18">
         <v>2.7</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="6">
         <f>ELECTRICITY!E3*1.15/2.7</f>
         <v>1.120185185185185</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="6">
         <f>1.15*ELECTRICITY!F3/2.7</f>
         <v>1.759074074074074E-2</v>
       </c>
-      <c r="G10" s="22">
-        <f>0.2/4</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="27">
+      <c r="G10" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="18">
         <v>3</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="6">
         <f>0.795*1.15</f>
         <v>0.91425000000000001</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="6">
         <f>1.15*0.0179</f>
         <v>2.0584999999999999E-2</v>
       </c>
-      <c r="G11" s="22">
-        <f>0.2/4</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="G11" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1.55</v>
+      </c>
+      <c r="F12" s="6">
+        <v>8.6900000000000005E-2</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="27">
+      <c r="C13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="18">
         <v>0.6</v>
       </c>
-      <c r="E12" s="3">
-        <v>1.55</v>
-      </c>
-      <c r="F12" s="3">
-        <v>8.6900000000000005E-2</v>
-      </c>
-      <c r="G12" s="23">
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="G13" s="15">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="11" t="s">
+      <c r="H13" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="27">
+      <c r="C14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="18">
         <v>0.6</v>
       </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="G13" s="18">
+      <c r="E14" s="6">
+        <v>1.68</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.112</v>
+      </c>
+      <c r="G14" s="15">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="11" t="s">
+      <c r="H14" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="27">
+      <c r="C15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="18">
         <v>0.6</v>
       </c>
-      <c r="E14" s="3">
-        <v>1.68</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0.112</v>
-      </c>
-      <c r="G14" s="18">
+      <c r="E15" s="6">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="F15" s="6">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="G15" s="15">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="11" t="s">
+      <c r="H15" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="27">
+      <c r="C16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="18">
         <v>0.6</v>
       </c>
-      <c r="E15" s="3">
-        <v>0.64100000000000001</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3.7699999999999997E-2</v>
-      </c>
-      <c r="G15" s="18">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="27">
-        <v>0.6</v>
-      </c>
-      <c r="E16" s="3">
-        <f>E9*0.8</f>
-        <v>0.22171999999999997</v>
-      </c>
-      <c r="F16" s="3">
-        <f>F9*0.8</f>
-        <v>1.0304000000000001E-2</v>
-      </c>
-      <c r="G16" s="18">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="27">
-        <v>0.6</v>
-      </c>
-      <c r="E17" s="12">
+      <c r="E16" s="6">
         <f>E9*0.3+E5*0.7</f>
         <v>1.0652449999999998</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F16" s="6">
         <f>F9*0.3+F5*0.7</f>
         <v>7.3818499999999981E-2</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G16" s="15">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="27">
+      <c r="H16" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="18">
         <v>0.6</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E17" s="6">
         <f>E9*0.6+E12*0.4</f>
         <v>0.78629000000000004</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F17" s="6">
         <f>F9*0.6+F12*0.4</f>
         <v>4.2488000000000005E-2</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G17" s="15">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="27">
+      <c r="H17" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="18">
         <v>0.6</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E18" s="6">
         <f>E9*0.6+E13*0.3+E12*0.1</f>
         <v>0.62129000000000001</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F18" s="6">
         <f>F9*0.6+F13*0.3+F12*0.1</f>
         <v>2.3168000000000001E-2</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G18" s="15">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="27">
+      <c r="H18" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="18">
         <v>0.6</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E19" s="6">
         <v>1.2761111111111112</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F19" s="6">
         <v>4.6404444444444443E-2</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G19" s="15">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="H19" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="E20" s="6">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="F20" s="6">
+        <v>9.3999999999999997E-4</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="27">
+      <c r="B21" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="18">
         <v>0.6</v>
       </c>
-      <c r="E21" s="12">
-        <v>5.3699999999999998E-2</v>
-      </c>
-      <c r="F21" s="12">
-        <v>9.3999999999999997E-4</v>
-      </c>
-      <c r="G21" s="18">
+      <c r="E21" s="6">
+        <f>(0.43*(E20)+0.28*(ELECTRICITY!E3/2.96)+0.18*0.954+0.11*0)</f>
+        <v>0.44359478378378375</v>
+      </c>
+      <c r="F21" s="6">
+        <f>(0.43*(F20)+0.28*(ELECTRICITY!F3/2.96)+0.18*0.0149+0.11*0)</f>
+        <v>6.9929567567567578E-3</v>
+      </c>
+      <c r="G21" s="15">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="27">
-        <v>0.6</v>
-      </c>
-      <c r="E22" s="3">
-        <f>(0.43*(E21)+0.28*(ELECTRICITY!E3/2.96)+0.18*0.954+0.11*0)</f>
-        <v>0.44359478378378375</v>
-      </c>
-      <c r="F22" s="3">
-        <f>(0.43*(F21)+0.28*(ELECTRICITY!F3/2.96)+0.18*0.0149+0.11*0)</f>
-        <v>6.9929567567567578E-3</v>
-      </c>
-      <c r="G22" s="18">
-        <v>0.08</v>
+      <c r="H21" s="17" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1385,556 +1402,594 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.28515625" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="C1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="G1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="15">
+        <v>0</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="26">
-        <v>0</v>
-      </c>
-      <c r="E2" s="11">
-        <v>0</v>
-      </c>
-      <c r="F2" s="11">
-        <v>0</v>
-      </c>
-      <c r="G2" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="27">
+      <c r="C3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="18">
         <v>0.8</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="6">
         <f>1.3*1.15</f>
         <v>1.4949999999999999</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="6">
         <f>1.15*0.0886</f>
         <v>0.10188999999999999</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="15">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="27">
+      <c r="H3" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="18">
         <v>0.6</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="6">
         <f>1.68*1.15/0.8</f>
         <v>2.4149999999999996</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="6">
         <f>1.15*0.12/0.8</f>
         <v>0.17249999999999996</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="15">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="27">
+      <c r="H4" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="18">
         <v>0.8</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="6">
         <f>1.22*1.15</f>
         <v>1.4029999999999998</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="6">
         <f>1.15*0.0869</f>
         <v>9.9934999999999996E-2</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="15">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="27">
+      <c r="H5" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="18">
         <v>0.9</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="6">
         <f>2.63*0.9*1.15</f>
         <v>2.7220499999999999</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="6">
         <f>1.15*0.0413*0.9</f>
         <v>4.2745500000000006E-2</v>
       </c>
-      <c r="G6" s="18">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="G6" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="18">
         <v>0.6</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="11">
         <f>0.2773328387*1.15</f>
         <v>0.31893276450499997</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="6">
         <f>1.15*0.014000495</f>
         <v>1.6100569249999998E-2</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="15">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
+      <c r="H7" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="27">
+        <v>27</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="18">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="6">
         <f>0.695*1.15</f>
         <v>0.7992499999999999</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="6">
         <f>1.15*0.0164</f>
         <v>1.8860000000000002E-2</v>
       </c>
-      <c r="G8" s="18">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
+      <c r="G8" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="27">
+        <v>28</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="18">
         <v>0.7</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="6">
         <f>1.15*0.241</f>
         <v>0.27714999999999995</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="6">
         <f>1.15*0.0112</f>
         <v>1.2879999999999999E-2</v>
       </c>
-      <c r="G9" s="18">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="27">
+        <v>29</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="18">
         <v>2.7</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="6">
         <f>ELECTRICITY!E3*1.15/2.7</f>
         <v>1.120185185185185</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="6">
         <f>ELECTRICITY!F3*1.15/2.7</f>
         <v>1.759074074074074E-2</v>
       </c>
-      <c r="G10" s="22">
-        <f>0.2/4</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
+      <c r="G10" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="27">
+        <v>30</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="18">
         <v>3</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="6">
         <f>0.795*1.15</f>
         <v>0.91425000000000001</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="6">
         <f>1.15*0.0179</f>
         <v>2.0584999999999999E-2</v>
       </c>
-      <c r="G11" s="22">
-        <f>0.2/4</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
+      <c r="G11" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1.55</v>
+      </c>
+      <c r="F12" s="6">
+        <v>8.6900000000000005E-2</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="27">
+      <c r="C13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="18">
         <v>0.6</v>
       </c>
-      <c r="E12" s="3">
-        <v>1.55</v>
-      </c>
-      <c r="F12" s="3">
-        <v>8.6900000000000005E-2</v>
-      </c>
-      <c r="G12" s="23">
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="G13" s="15">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="H13" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="27">
+      <c r="C14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="18">
         <v>0.6</v>
       </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="G13" s="18">
+      <c r="E14" s="6">
+        <v>1.68</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.112</v>
+      </c>
+      <c r="G14" s="15">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="H14" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="27">
+      <c r="C15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="18">
         <v>0.6</v>
       </c>
-      <c r="E14" s="3">
-        <v>1.68</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0.112</v>
-      </c>
-      <c r="G14" s="18">
+      <c r="E15" s="6">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="F15" s="6">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="G15" s="15">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="H15" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="27">
+      <c r="C16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="18">
         <v>0.6</v>
       </c>
-      <c r="E15" s="3">
-        <v>0.64100000000000001</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3.7699999999999997E-2</v>
-      </c>
-      <c r="G15" s="18">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="27">
-        <v>0.6</v>
-      </c>
-      <c r="E16" s="3">
-        <f>E9*0.8</f>
-        <v>0.22171999999999997</v>
-      </c>
-      <c r="F16" s="3">
-        <f>F9*0.8</f>
-        <v>1.0304000000000001E-2</v>
-      </c>
-      <c r="G16" s="18">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="27">
-        <v>0.6</v>
-      </c>
-      <c r="E17" s="12">
+      <c r="E16" s="6">
         <f>E9*0.3+E5*0.7</f>
         <v>1.0652449999999998</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F16" s="6">
         <f>F9*0.3+F5*0.7</f>
         <v>7.3818499999999981E-2</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G16" s="15">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="27">
+      <c r="H16" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="18">
         <v>0.6</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E17" s="6">
         <f>E9*0.6+E12*0.4</f>
         <v>0.78629000000000004</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F17" s="6">
         <f>F9*0.6+F12*0.4</f>
         <v>4.2488000000000005E-2</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G17" s="15">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="27">
+      <c r="H17" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="18">
         <v>0.6</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E18" s="6">
         <f>E9*0.6+E13*0.3+E12*0.1</f>
         <v>0.62129000000000001</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F18" s="6">
         <f>F9*0.6+F13*0.3+F12*0.1</f>
         <v>2.3168000000000001E-2</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G18" s="15">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="27">
+      <c r="H18" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="18">
         <v>0.6</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E19" s="6">
         <v>1.2761111111111112</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F19" s="6">
         <v>4.6404444444444443E-2</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G19" s="15">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="H19" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="E20" s="6">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="F20" s="6">
+        <v>9.3999999999999997E-4</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="27">
+      <c r="B21" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="18">
         <v>0.6</v>
       </c>
-      <c r="E21" s="12">
-        <v>5.3699999999999998E-2</v>
-      </c>
-      <c r="F21" s="3">
-        <v>9.3999999999999997E-4</v>
-      </c>
-      <c r="G21" s="18">
+      <c r="E21" s="6">
+        <f>(0.43*(E20)+0.28*(ELECTRICITY!E3/2.96)+0.18*0.954+0.11*0)</f>
+        <v>0.44359478378378375</v>
+      </c>
+      <c r="F21" s="6">
+        <f>(0.43*(F20)+0.28*(ELECTRICITY!F3/2.96)+0.18*0.0149+0.11*0)</f>
+        <v>6.9929567567567578E-3</v>
+      </c>
+      <c r="G21" s="15">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="27">
-        <v>0.6</v>
-      </c>
-      <c r="E22" s="3">
-        <f>(0.43*(E21)+0.28*(ELECTRICITY!E3/2.96)+0.18*0.954+0.11*0)</f>
-        <v>0.44359478378378375</v>
-      </c>
-      <c r="F22" s="3">
-        <f>(0.43*(F21)+0.28*(ELECTRICITY!F3/2.96)+0.18*0.0149+0.11*0)</f>
-        <v>6.9929567567567578E-3</v>
-      </c>
-      <c r="G22" s="18">
-        <v>0.08</v>
+      <c r="H21" s="17" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1946,10 +2001,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H1" sqref="H1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1960,152 +2015,169 @@
     <col min="4" max="4" width="8.42578125" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="14">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="D3" s="11">
+        <v>2.7</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1.120185185185185</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1.759074074074074E-2</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="28">
-        <v>2.7</v>
-      </c>
-      <c r="E3" s="14">
-        <v>1.120185185185185</v>
-      </c>
-      <c r="F3" s="14">
-        <v>1.759074074074074E-2</v>
-      </c>
-      <c r="G3" s="21">
-        <f t="shared" ref="G3:G5" si="0">0.2/2.7</f>
-        <v>7.407407407407407E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="28">
+      <c r="C4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="11">
         <v>3</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="6">
         <f>E5*0.8</f>
         <v>0.12487999999999999</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="6">
         <f>F5*0.8</f>
         <v>1.956260204185213E-3</v>
       </c>
-      <c r="G4" s="21">
-        <f t="shared" si="0"/>
+      <c r="G4" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.15609999999999999</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2.4453252552315164E-3</v>
+      </c>
+      <c r="G5" s="13">
+        <f t="shared" ref="G5" si="0">0.2/2.7</f>
         <v>7.407407407407407E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="H5" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="E5" s="14">
-        <v>0.15609999999999999</v>
-      </c>
-      <c r="F5" s="14">
-        <v>2.4453252552315164E-3</v>
-      </c>
-      <c r="G5" s="21">
-        <f t="shared" si="0"/>
-        <v>7.407407407407407E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="28">
+      <c r="C6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="11">
         <v>2.8</v>
       </c>
-      <c r="E6" s="14">
-        <f>ELECTRICITY!E8/4</f>
+      <c r="E6" s="6">
+        <f>ELECTRICITY!E6/4</f>
         <v>0.5</v>
       </c>
-      <c r="F6" s="14">
-        <f>ELECTRICITY!F8/4</f>
+      <c r="F6" s="6">
+        <f>ELECTRICITY!F6/4</f>
         <v>6.2459374999999998E-2</v>
       </c>
       <c r="G6" s="14">
-        <f>ELECTRICITY!G8/4</f>
+        <f>ELECTRICITY!G6/4</f>
         <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2116,205 +2188,178 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="G1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2.63</v>
+      </c>
+      <c r="F3" s="6">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="G4" s="15">
         <v>0</v>
       </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="H4" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="4">
         <v>0.99</v>
       </c>
-      <c r="E3" s="14">
-        <v>2.63</v>
-      </c>
-      <c r="F3" s="14">
-        <v>4.1300000000000003E-2</v>
-      </c>
-      <c r="G3" s="21">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="E4" s="14">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="F4" s="14">
-        <v>2.0199999999999999E-2</v>
-      </c>
-      <c r="G4" s="24">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="E5" s="14">
-        <v>0.222</v>
-      </c>
-      <c r="F5" s="14">
-        <v>1.0800000000000001E-2</v>
-      </c>
-      <c r="G5" s="24">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="E6" s="14">
+      <c r="E5" s="6">
         <f>E4*0.3+E3*0.7</f>
         <v>1.9243999999999997</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F5" s="6">
         <f>F4*0.3+F3*0.7</f>
         <v>3.4970000000000001E-2</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G5" s="13">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="H5" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="4">
         <v>0.99</v>
       </c>
-      <c r="E7" s="14">
-        <f>E5*0.3+E3*0.7</f>
-        <v>1.9075999999999997</v>
-      </c>
-      <c r="F7" s="14">
-        <f>F5*0.3+F3*0.7</f>
-        <v>3.2150000000000005E-2</v>
-      </c>
-      <c r="G7" s="21">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="E8" s="21">
+      <c r="E6" s="9">
         <f>HEATING!D5/0.4</f>
         <v>2</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F6" s="9">
         <f>HEATING!F5/0.4</f>
         <v>0.24983749999999999</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G6" s="13">
         <v>0.27</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
+++ b/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JimenoF\Documents\Github\CityEnergyAnalyst\cea\databases\SIN\lifecycle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JimenoF\Documents\Github\CityEnergyAnalyst\cea\databases\CH\lifecycle\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="75">
   <si>
     <t>Description</t>
   </si>
@@ -291,9 +291,6 @@
   </si>
   <si>
     <t>eff_dhw</t>
-  </si>
-  <si>
-    <t>SOLAR</t>
   </si>
   <si>
     <t>-</t>
@@ -844,7 +841,7 @@
         <v>52</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -870,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -881,7 +878,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="18">
         <v>0.8</v>
@@ -898,7 +895,7 @@
         <v>0.2</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -909,7 +906,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="18">
         <v>0.6</v>
@@ -926,7 +923,7 @@
         <v>0.2</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -937,7 +934,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="18">
         <v>0.8</v>
@@ -954,7 +951,7 @@
         <v>0.2</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -979,10 +976,10 @@
         <v>4.2745500000000006E-2</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -993,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="18">
         <v>0.6</v>
@@ -1010,7 +1007,7 @@
         <v>0.2</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1035,10 +1032,10 @@
         <v>1.8860000000000002E-2</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1049,7 +1046,7 @@
         <v>28</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" s="18">
         <v>0.7</v>
@@ -1066,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1091,10 +1088,10 @@
         <v>1.759074074074074E-2</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1119,10 +1116,10 @@
         <v>2.0584999999999999E-2</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1148,7 +1145,7 @@
         <v>0.08</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1174,7 +1171,7 @@
         <v>0.08</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1200,7 +1197,7 @@
         <v>0.08</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1226,7 +1223,7 @@
         <v>0.08</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1254,7 +1251,7 @@
         <v>0.2</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1282,7 +1279,7 @@
         <v>0.08</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1310,7 +1307,7 @@
         <v>0.08</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1336,7 +1333,7 @@
         <v>0.08</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1362,7 +1359,7 @@
         <v>0.08</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1390,7 +1387,7 @@
         <v>0.08</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1405,7 +1402,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,7 +1440,7 @@
         <v>52</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1469,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1480,7 +1477,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="18">
         <v>0.8</v>
@@ -1497,7 +1494,7 @@
         <v>0.2</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1508,7 +1505,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="18">
         <v>0.6</v>
@@ -1525,7 +1522,7 @@
         <v>0.2</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1536,7 +1533,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="18">
         <v>0.8</v>
@@ -1553,7 +1550,7 @@
         <v>0.2</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1578,10 +1575,10 @@
         <v>4.2745500000000006E-2</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1592,7 +1589,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="18">
         <v>0.6</v>
@@ -1609,7 +1606,7 @@
         <v>0.2</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1634,10 +1631,10 @@
         <v>1.8860000000000002E-2</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1648,7 +1645,7 @@
         <v>28</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D9" s="18">
         <v>0.7</v>
@@ -1665,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1690,10 +1687,10 @@
         <v>1.759074074074074E-2</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1718,10 +1715,10 @@
         <v>2.0584999999999999E-2</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1747,7 +1744,7 @@
         <v>0.08</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1773,7 +1770,7 @@
         <v>0.08</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1799,7 +1796,7 @@
         <v>0.08</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1825,7 +1822,7 @@
         <v>0.08</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1853,7 +1850,7 @@
         <v>0.2</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1881,7 +1878,7 @@
         <v>0.08</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1909,7 +1906,7 @@
         <v>0.08</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1935,7 +1932,7 @@
         <v>0.08</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1961,7 +1958,7 @@
         <v>0.08</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1989,7 +1986,7 @@
         <v>0.08</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2041,7 +2038,7 @@
         <v>52</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2067,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2090,10 +2087,10 @@
         <v>1.759074074074074E-2</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2118,10 +2115,10 @@
         <v>1.956260204185213E-3</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2148,7 +2145,7 @@
         <v>7.407407407407407E-2</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2177,7 +2174,7 @@
         <v>6.7500000000000004E-2</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2225,7 +2222,7 @@
         <v>52</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2251,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2277,7 +2274,7 @@
         <v>0.2</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2303,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2331,7 +2328,7 @@
         <v>0.2</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2359,7 +2356,7 @@
         <v>0.27</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
+++ b/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\CityEnergyAnalyst\cea\databases\SIN\lifecycle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bhargava\Documents\GitHub\CEAforArcGIS\cea\databases\SIN\lifecycle\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="470" windowWidth="28800" windowHeight="16260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DHW" sheetId="4" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="61">
   <si>
     <t>Description</t>
   </si>
@@ -160,16 +160,85 @@
     <t>KBOB 2019</t>
   </si>
   <si>
-    <t>ecoinvent 3.4 - market for electricity, medium voltage, SG</t>
-  </si>
-  <si>
-    <t>ecoinvent 3.4 - electricity production, photovoltaic, 3kWp flat-roof installation, single-Si RoW electricity, medium voltage, SG</t>
-  </si>
-  <si>
     <t>Embodied is neglected, only electricity</t>
   </si>
   <si>
     <t>Electricity + losses only</t>
+  </si>
+  <si>
+    <t>Embodied is neglected, only electricity, costs USD-2015</t>
+  </si>
+  <si>
+    <t>ecoinvent 3.4 - electricity production, photovoltaic, 3kWp flat-roof installation, single-Si RoW electricity, medium voltage, costs in USD-2015</t>
+  </si>
+  <si>
+    <t>ecoinvent 3.4 - market for electricity, medium voltage, SG, costs in USD-2015</t>
+  </si>
+  <si>
+    <t>solar collector</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>KBOB 2019, costs in USD-2015</t>
+  </si>
+  <si>
+    <t>Green Electricity</t>
+  </si>
+  <si>
+    <t>mix</t>
+  </si>
+  <si>
+    <t>from CEA, costs in USD-2015</t>
+  </si>
+  <si>
+    <t>Natural gas CHP</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>Bio gas CHP</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>Agricultural Bio gas CHP</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>DH</t>
+  </si>
+  <si>
+    <t>district heating - bio gas-fired boiler</t>
+  </si>
+  <si>
+    <t>T23</t>
+  </si>
+  <si>
+    <t>district heating - agricultural bio gas-fired boiler</t>
+  </si>
+  <si>
+    <t>T24</t>
+  </si>
+  <si>
+    <t>district heating - natural gas-fired boiler</t>
+  </si>
+  <si>
+    <t>T25</t>
   </si>
 </sst>
 </file>
@@ -655,25 +724,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.26953125" customWidth="1"/>
+    <col min="2" max="2" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" customWidth="1"/>
+    <col min="5" max="5" width="7.453125" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -699,7 +768,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -725,7 +794,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -750,52 +819,76 @@
         <v>31</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G16"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G17"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G18"/>
     </row>
   </sheetData>
@@ -807,25 +900,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="51" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.26953125" customWidth="1"/>
+    <col min="5" max="5" width="7.453125" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -851,7 +944,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -876,6 +969,101 @@
       <c r="H2" s="17" t="s">
         <v>33</v>
       </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="2">
+        <v>0.83069999999999999</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.10631400000000001</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="2">
+        <v>0.176514</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4.3227599999999998E-2</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="2">
+        <v>0.17261399999999999</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2.7612000000000001</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
@@ -888,21 +1076,21 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -928,7 +1116,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -954,7 +1142,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -979,10 +1167,10 @@
         <v>31</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1007,10 +1195,10 @@
         <v>31</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1032,14 +1220,14 @@
         <v>4.0937500000000002E-2</v>
       </c>
       <c r="G5" s="13">
-        <f t="shared" ref="G5" si="0">0.2/2.7</f>
-        <v>7.407407407407407E-2</v>
+        <f>0.2/2.7*1.1</f>
+        <v>8.1481481481481488E-2</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1061,8 +1249,8 @@
         <v>4.6785714285714292E-2</v>
       </c>
       <c r="G6" s="14">
-        <f>ELECTRICITY!G4/4</f>
-        <v>6.7500000000000004E-2</v>
+        <f>(ELECTRICITY!G4/4)*1.1</f>
+        <v>4.5375000000000006E-2</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>36</v>
@@ -1076,22 +1264,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.54296875" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1117,7 +1305,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1143,7 +1331,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -1166,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1189,10 +1377,99 @@
         <v>0.13100000000000001</v>
       </c>
       <c r="G4" s="13">
-        <v>0.27</v>
+        <f>0.22*0.75</f>
+        <v>0.16500000000000001</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="2">
+        <v>2.2932000000000001</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.14507999999999999</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="2">
+        <v>0.66378000000000004</v>
+      </c>
+      <c r="F7" s="2">
+        <v>8.8919999999999999E-2</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2">
+        <v>0.12168</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3.8609999999999998E-2</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="17" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
+++ b/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="62">
   <si>
     <t>Description</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>T25</t>
+  </si>
+  <si>
+    <t>natural gas-fired boiler</t>
   </si>
 </sst>
 </file>
@@ -900,10 +903,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -998,43 +1001,46 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="12"/>
+        <v>48</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.8</v>
+      </c>
       <c r="E4" s="2">
-        <v>0.83069999999999999</v>
+        <v>1.403</v>
       </c>
       <c r="F4" s="2">
-        <v>0.10631400000000001</v>
-      </c>
-      <c r="G4" s="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0.22</v>
+      </c>
       <c r="H4" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="3"/>
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="2">
-        <v>0.176514</v>
+        <v>0.83069999999999999</v>
       </c>
       <c r="F5" s="2">
-        <v>4.3227599999999998E-2</v>
+        <v>0.10631400000000001</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="17" t="s">
@@ -1044,26 +1050,49 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="2">
-        <v>0.17261399999999999</v>
+        <v>0.176514</v>
       </c>
       <c r="F6" s="2">
-        <v>2.7612000000000001</v>
+        <v>4.3227599999999998E-2</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="17" t="s">
         <v>45</v>
       </c>
       <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="2">
+        <v>0.17261399999999999</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2.7612000000000001</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>

--- a/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
+++ b/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="470" windowWidth="28800" windowHeight="16260" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="470" windowWidth="28800" windowHeight="16260" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DHW" sheetId="4" r:id="rId1"/>
@@ -193,9 +193,6 @@
     <t>mix</t>
   </si>
   <si>
-    <t>from CEA, costs in USD-2015</t>
-  </si>
-  <si>
     <t>Natural gas CHP</t>
   </si>
   <si>
@@ -242,6 +239,9 @@
   </si>
   <si>
     <t>natural gas-fired boiler</t>
+  </si>
+  <si>
+    <t>from CEA, costs in USD-2015, except for PEN and CO2, rest are assumptions</t>
   </si>
 </sst>
 </file>
@@ -905,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1001,13 +1001,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="12">
         <v>0.8</v>
@@ -1027,70 +1027,82 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="C5" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="12"/>
+        <v>53</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.8</v>
+      </c>
       <c r="E5" s="2">
         <v>0.83069999999999999</v>
       </c>
       <c r="F5" s="2">
         <v>0.10631400000000001</v>
       </c>
-      <c r="G5" s="15"/>
+      <c r="G5" s="15">
+        <v>0.22</v>
+      </c>
       <c r="H5" s="17" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="C6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="12"/>
+        <v>53</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.8</v>
+      </c>
       <c r="E6" s="2">
         <v>0.176514</v>
       </c>
       <c r="F6" s="2">
         <v>4.3227599999999998E-2</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="15">
+        <v>0.22</v>
+      </c>
       <c r="H6" s="17" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="C7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="12"/>
+        <v>53</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.8</v>
+      </c>
       <c r="E7" s="2">
         <v>0.17261399999999999</v>
       </c>
       <c r="F7" s="2">
         <v>2.7612000000000001</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="15">
+        <v>0.22</v>
+      </c>
       <c r="H7" s="17" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="I7" s="3"/>
     </row>
@@ -1295,8 +1307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1423,82 +1435,102 @@
       <c r="C5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4">
+        <v>0.99</v>
+      </c>
       <c r="E5" s="2">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="F5" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="13">
+        <f>0.22*0.75</f>
+        <v>0.16500000000000001</v>
+      </c>
       <c r="H5" s="17" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4">
+        <v>0.99</v>
+      </c>
       <c r="E6" s="2">
         <v>2.2932000000000001</v>
       </c>
       <c r="F6" s="2">
         <v>0.14507999999999999</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="13">
+        <f>0.22*0.75</f>
+        <v>0.16500000000000001</v>
+      </c>
       <c r="H6" s="17" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4">
+        <v>0.99</v>
+      </c>
       <c r="E7" s="2">
         <v>0.66378000000000004</v>
       </c>
       <c r="F7" s="2">
         <v>8.8919999999999999E-2</v>
       </c>
-      <c r="G7" s="13"/>
+      <c r="G7" s="13">
+        <f>0.22*0.75</f>
+        <v>0.16500000000000001</v>
+      </c>
       <c r="H7" s="17" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.99</v>
+      </c>
       <c r="E8" s="2">
         <v>0.12168</v>
       </c>
       <c r="F8" s="2">
         <v>3.8609999999999998E-2</v>
       </c>
-      <c r="G8" s="13"/>
+      <c r="G8" s="13">
+        <f>0.22*0.75</f>
+        <v>0.16500000000000001</v>
+      </c>
       <c r="H8" s="17" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
+++ b/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="470" windowWidth="28800" windowHeight="16260" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="470" windowWidth="28800" windowHeight="16260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DHW" sheetId="4" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
   <si>
     <t>Description</t>
   </si>
@@ -218,18 +218,6 @@
   </si>
   <si>
     <t>DH</t>
-  </si>
-  <si>
-    <t>district heating - bio gas-fired boiler</t>
-  </si>
-  <si>
-    <t>T23</t>
-  </si>
-  <si>
-    <t>district heating - agricultural bio gas-fired boiler</t>
-  </si>
-  <si>
-    <t>T24</t>
   </si>
   <si>
     <t>district heating - natural gas-fired boiler</t>
@@ -903,10 +891,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1001,7 +989,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
@@ -1039,72 +1027,18 @@
         <v>0.8</v>
       </c>
       <c r="E5" s="2">
-        <v>0.83069999999999999</v>
+        <v>0.17261399999999999</v>
       </c>
       <c r="F5" s="2">
-        <v>0.10631400000000001</v>
+        <v>2.7612000000000001</v>
       </c>
       <c r="G5" s="15">
         <v>0.22</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.176514</v>
-      </c>
-      <c r="F6" s="2">
-        <v>4.3227599999999998E-2</v>
-      </c>
-      <c r="G6" s="15">
-        <v>0.22</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.17261399999999999</v>
-      </c>
-      <c r="F7" s="2">
-        <v>2.7612000000000001</v>
-      </c>
-      <c r="G7" s="15">
-        <v>0.22</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
@@ -1117,7 +1051,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1307,7 +1241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -1449,7 +1383,7 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1476,7 +1410,7 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -1503,7 +1437,7 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -1530,7 +1464,7 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
+++ b/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="470" windowWidth="28800" windowHeight="16260" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="470" windowWidth="28800" windowHeight="16260" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DHW" sheetId="4" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
   <si>
     <t>Description</t>
   </si>
@@ -217,12 +217,6 @@
     <t>T10</t>
   </si>
   <si>
-    <t>DH</t>
-  </si>
-  <si>
-    <t>district heating - natural gas-fired boiler</t>
-  </si>
-  <si>
     <t>T25</t>
   </si>
   <si>
@@ -230,6 +224,9 @@
   </si>
   <si>
     <t>from CEA, costs in USD-2015, except for PEN and CO2, rest are assumptions</t>
+  </si>
+  <si>
+    <t>district cooling - natural gas-fired boiler for absorption chiller</t>
   </si>
 </sst>
 </file>
@@ -891,10 +888,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -909,7 +906,7 @@
     <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -935,7 +932,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -961,7 +958,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>39</v>
       </c>
@@ -987,9 +984,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
@@ -1012,33 +1009,6 @@
       <c r="H4" s="17" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.17261399999999999</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2.7612000000000001</v>
-      </c>
-      <c r="G5" s="15">
-        <v>0.22</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
@@ -1048,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1065,7 +1035,7 @@
     <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1091,7 +1061,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1117,7 +1087,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1145,7 +1115,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1173,7 +1143,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1202,7 +1172,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1231,9 +1201,36 @@
         <v>36</v>
       </c>
     </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.17261399999999999</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2.7612000000000001</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0.22</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1383,7 +1380,7 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1410,7 +1407,7 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -1437,7 +1434,7 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -1464,7 +1461,7 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
+++ b/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="470" windowWidth="28800" windowHeight="16260" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="470" windowWidth="28800" windowHeight="16260" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DHW" sheetId="4" r:id="rId1"/>
     <sheet name="HEATING" sheetId="1" r:id="rId2"/>
     <sheet name="COOLING" sheetId="2" r:id="rId3"/>
     <sheet name="ELECTRICITY" sheetId="3" r:id="rId4"/>
+    <sheet name="FUELS" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="59">
   <si>
     <t>Description</t>
   </si>
@@ -142,18 +143,12 @@
     <t>GRID</t>
   </si>
   <si>
-    <t>PV</t>
-  </si>
-  <si>
     <t>source_dhw</t>
   </si>
   <si>
     <t>eff_dhw</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>reference</t>
   </si>
   <si>
@@ -181,9 +176,6 @@
     <t>T7</t>
   </si>
   <si>
-    <t>SC</t>
-  </si>
-  <si>
     <t>KBOB 2019, costs in USD-2015</t>
   </si>
   <si>
@@ -227,6 +219,21 @@
   </si>
   <si>
     <t>district cooling - natural gas-fired boiler for absorption chiller</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>SOLAR</t>
+  </si>
+  <si>
+    <t>from CEA, costs in USD-2015,</t>
   </si>
 </sst>
 </file>
@@ -313,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -328,9 +335,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -348,9 +352,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -712,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -724,13 +725,10 @@
     <col min="2" max="2" width="6.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7265625" customWidth="1"/>
-    <col min="5" max="5" width="7.453125" customWidth="1"/>
-    <col min="6" max="6" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -738,25 +736,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -766,23 +755,14 @@
       <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>0</v>
       </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="15">
-        <v>0</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E2" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -792,92 +772,30 @@
       <c r="C3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="16">
         <v>0.9</v>
       </c>
-      <c r="E3" s="6">
-        <f>ELECTRICITY!E4*D3*1.15</f>
-        <v>2.6009549999999995</v>
-      </c>
-      <c r="F3" s="6">
-        <f>1.15*ELECTRICITY!F4*D3</f>
-        <v>0.13558500000000001</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E3" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0.7</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="G4" s="15">
-        <v>0</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G8"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G9"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G10"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G11"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G12"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G13"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G14"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G15"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G16"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G17"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G18"/>
+      <c r="F4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
@@ -888,10 +806,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -900,13 +818,10 @@
     <col min="2" max="2" width="6.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.26953125" customWidth="1"/>
-    <col min="5" max="5" width="7.453125" customWidth="1"/>
-    <col min="6" max="6" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -919,20 +834,11 @@
       <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E1" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -942,72 +848,45 @@
       <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>0</v>
       </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="15">
-        <v>0</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E2" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="12">
-        <v>0.7</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="G3" s="15">
-        <v>0</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="12">
+        <v>44</v>
+      </c>
+      <c r="D4" s="11">
         <v>0.8</v>
       </c>
-      <c r="E4" s="2">
-        <v>1.403</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G4" s="15">
-        <v>0.22</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>42</v>
+      <c r="E4" s="15" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1018,10 +897,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1030,12 +909,10 @@
     <col min="2" max="2" width="7.26953125" customWidth="1"/>
     <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.453125" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1048,20 +925,11 @@
       <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E1" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1074,76 +942,45 @@
       <c r="D2" s="6">
         <v>0</v>
       </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="13">
-        <v>0</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E2" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>2.7</v>
       </c>
-      <c r="E3" s="6">
-        <f>ELECTRICITY!$E$4/D3</f>
-        <v>0.93074074074074065</v>
-      </c>
-      <c r="F3" s="6">
-        <f>ELECTRICITY!$F$4/D3</f>
-        <v>4.8518518518518516E-2</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E3" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>3</v>
       </c>
-      <c r="E4" s="6">
-        <f>ELECTRICITY!$E$4/D4</f>
-        <v>0.83766666666666667</v>
-      </c>
-      <c r="F4" s="6">
-        <f>ELECTRICITY!$F$4/D4</f>
-        <v>4.3666666666666666E-2</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E4" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1156,77 +993,44 @@
       <c r="D5" s="6">
         <v>3.2</v>
       </c>
-      <c r="E5" s="6">
-        <f>ELECTRICITY!$E$4/D5</f>
-        <v>0.78531249999999997</v>
-      </c>
-      <c r="F5" s="6">
-        <f>ELECTRICITY!$F$4/D5</f>
-        <v>4.0937500000000002E-2</v>
-      </c>
-      <c r="G5" s="13">
-        <f>0.2/2.7*1.1</f>
-        <v>8.1481481481481488E-2</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E5" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>2.8</v>
       </c>
-      <c r="E6" s="6">
-        <f>ELECTRICITY!$E$4/D6</f>
-        <v>0.89750000000000008</v>
-      </c>
-      <c r="F6" s="6">
-        <f>ELECTRICITY!$F$4/D6</f>
-        <v>4.6785714285714292E-2</v>
-      </c>
-      <c r="G6" s="14">
-        <f>(ELECTRICITY!G4/4)*1.1</f>
-        <v>4.5375000000000006E-2</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E6" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="12">
+        <v>44</v>
+      </c>
+      <c r="D7" s="11">
         <v>0.8</v>
       </c>
-      <c r="E7" s="2">
-        <v>0.17261399999999999</v>
-      </c>
-      <c r="F7" s="2">
-        <v>2.7612000000000001</v>
-      </c>
-      <c r="G7" s="15">
-        <v>0.22</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="3"/>
+      <c r="E7" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
@@ -1239,7 +1043,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1270,11 +1074,11 @@
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>32</v>
+      <c r="H1" s="14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -1296,11 +1100,11 @@
       <c r="F2" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="12">
         <v>0</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>33</v>
+      <c r="H2" s="15" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -1311,7 +1115,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D3" s="4">
         <v>0.99</v>
@@ -1322,18 +1126,18 @@
       <c r="F3" s="6">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="13">
         <v>0</v>
       </c>
-      <c r="H3" s="17" t="s">
-        <v>37</v>
+      <c r="H3" s="15" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1342,29 +1146,29 @@
       <c r="D4" s="4">
         <v>0.99</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>2.5129999999999999</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>0.13100000000000001</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <f>0.22*0.75</f>
         <v>0.16500000000000001</v>
       </c>
-      <c r="H4" s="17" t="s">
-        <v>38</v>
+      <c r="H4" s="15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D5" s="4">
         <v>0.99</v>
@@ -1375,23 +1179,23 @@
       <c r="F5" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <f>0.22*0.75</f>
         <v>0.16500000000000001</v>
       </c>
-      <c r="H5" s="17" t="s">
-        <v>55</v>
+      <c r="H5" s="15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D6" s="4">
         <v>0.99</v>
@@ -1402,23 +1206,23 @@
       <c r="F6" s="2">
         <v>0.14507999999999999</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <f>0.22*0.75</f>
         <v>0.16500000000000001</v>
       </c>
-      <c r="H6" s="17" t="s">
-        <v>55</v>
+      <c r="H6" s="15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D7" s="4">
         <v>0.99</v>
@@ -1429,23 +1233,23 @@
       <c r="F7" s="2">
         <v>8.8919999999999999E-2</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <f>0.22*0.75</f>
         <v>0.16500000000000001</v>
       </c>
-      <c r="H7" s="17" t="s">
-        <v>55</v>
+      <c r="H7" s="15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D8" s="4">
         <v>0.99</v>
@@ -1456,15 +1260,115 @@
       <c r="F8" s="2">
         <v>3.8609999999999998E-2</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <f>0.22*0.75</f>
         <v>0.16500000000000001</v>
       </c>
-      <c r="H8" s="17" t="s">
-        <v>55</v>
+      <c r="H8" s="15" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.403</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="2">
+        <f>4.94/293</f>
+        <v>1.6860068259385668E-2</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.5129999999999999</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="E3" s="2">
+        <f>0.22*0.75</f>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
+++ b/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="470" windowWidth="28800" windowHeight="16260" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="470" windowWidth="28800" windowHeight="16260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DHW" sheetId="4" r:id="rId1"/>
@@ -808,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1277,7 +1277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>

--- a/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
+++ b/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bhargava\Documents\GitHub\CEAforArcGIS\cea\databases\SIN\lifecycle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\CityEnergyAnalyst\cea\databases\SIN\lifecycle\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="470" windowWidth="28800" windowHeight="16260" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DHW" sheetId="4" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="60">
   <si>
     <t>Description</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>from CEA, costs in USD-2015,</t>
+  </si>
+  <si>
+    <t>ecoinvent 3.4 - market for natural gas, burned in gas motor, for storage_GLO_2017_Allocation, cut-off</t>
   </si>
 </sst>
 </file>
@@ -719,16 +722,16 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.26953125" customWidth="1"/>
-    <col min="2" max="2" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -745,7 +748,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -762,7 +765,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -779,7 +782,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
@@ -812,16 +815,16 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51" customWidth="1"/>
-    <col min="2" max="2" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.26953125" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -838,7 +841,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -855,7 +858,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -872,7 +875,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>51</v>
       </c>
@@ -903,16 +906,16 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.26953125" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -929,7 +932,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -946,7 +949,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -963,7 +966,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,7 +983,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -997,7 +1000,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1014,7 +1017,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>53</v>
       </c>
@@ -1046,16 +1049,16 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.54296875" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1081,7 +1084,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1107,7 +1110,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -1133,7 +1136,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1160,7 +1163,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
@@ -1187,7 +1190,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
@@ -1214,7 +1217,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
@@ -1241,7 +1244,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>48</v>
       </c>
@@ -1278,15 +1281,15 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1306,7 +1309,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
@@ -1314,20 +1317,21 @@
         <v>44</v>
       </c>
       <c r="C2" s="2">
-        <v>1.403</v>
+        <f>1.1767+0.0019487+0.0000015726</f>
+        <v>1.1786502726000001</v>
       </c>
       <c r="D2" s="2">
-        <v>0.1</v>
+        <v>6.6820000000000004E-2</v>
       </c>
       <c r="E2" s="2">
         <f>4.94/293</f>
         <v>1.6860068259385668E-2</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -1348,7 +1352,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>

--- a/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
+++ b/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\CityEnergyAnalyst\cea\databases\SIN\lifecycle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bhargava\Documents\GitHub\CEAforArcGIS\cea\databases\SIN\lifecycle\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="470" windowWidth="28800" windowHeight="16260" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DHW" sheetId="4" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="59">
   <si>
     <t>Description</t>
   </si>
@@ -234,9 +234,6 @@
   </si>
   <si>
     <t>from CEA, costs in USD-2015,</t>
-  </si>
-  <si>
-    <t>ecoinvent 3.4 - market for natural gas, burned in gas motor, for storage_GLO_2017_Allocation, cut-off</t>
   </si>
 </sst>
 </file>
@@ -722,16 +719,16 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.26953125" customWidth="1"/>
+    <col min="2" max="2" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -748,7 +745,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -765,7 +762,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -782,7 +779,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
@@ -815,16 +812,16 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="51" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.26953125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -841,7 +838,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -858,7 +855,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -875,7 +872,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>51</v>
       </c>
@@ -906,16 +903,16 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -932,7 +929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -949,7 +946,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -966,7 +963,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -983,7 +980,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1000,7 +997,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1017,7 +1014,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>53</v>
       </c>
@@ -1049,16 +1046,16 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.54296875" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1084,7 +1081,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1110,7 +1107,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -1136,7 +1133,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1163,7 +1160,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
@@ -1190,7 +1187,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
@@ -1217,7 +1214,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
@@ -1244,7 +1241,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>48</v>
       </c>
@@ -1281,15 +1278,15 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1309,7 +1306,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
@@ -1317,21 +1314,20 @@
         <v>44</v>
       </c>
       <c r="C2" s="2">
-        <f>1.1767+0.0019487+0.0000015726</f>
-        <v>1.1786502726000001</v>
+        <v>1.403</v>
       </c>
       <c r="D2" s="2">
-        <v>6.6820000000000004E-2</v>
+        <v>0.1</v>
       </c>
       <c r="E2" s="2">
         <f>4.94/293</f>
         <v>1.6860068259385668E-2</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -1352,7 +1348,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>

--- a/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
+++ b/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bhargava\Documents\GitHub\CEAforArcGIS\cea\databases\SIN\lifecycle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="470" windowWidth="28800" windowHeight="16260" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DHW" sheetId="4" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="60">
   <si>
     <t>Description</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>from CEA, costs in USD-2015,</t>
+  </si>
+  <si>
+    <t>ecoinvent 3.4 - market for natural gas, burned in gas motor, for storage_GLO_2017_Allocation, cut-off</t>
   </si>
 </sst>
 </file>
@@ -719,16 +722,16 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.26953125" customWidth="1"/>
-    <col min="2" max="2" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -745,7 +748,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -762,7 +765,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -779,7 +782,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
@@ -812,16 +815,16 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51" customWidth="1"/>
-    <col min="2" max="2" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.26953125" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -838,7 +841,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -855,7 +858,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -872,7 +875,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>51</v>
       </c>
@@ -903,16 +906,16 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.26953125" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -929,7 +932,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -946,7 +949,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -963,7 +966,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,7 +983,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -997,7 +1000,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1014,7 +1017,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>53</v>
       </c>
@@ -1046,16 +1049,16 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.54296875" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1081,7 +1084,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1107,7 +1110,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -1133,7 +1136,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1160,7 +1163,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
@@ -1187,7 +1190,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
@@ -1214,7 +1217,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
@@ -1241,7 +1244,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>48</v>
       </c>
@@ -1278,15 +1281,15 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1306,7 +1309,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
@@ -1314,20 +1317,21 @@
         <v>44</v>
       </c>
       <c r="C2" s="2">
-        <v>1.403</v>
+        <f>1.1767+0.0019487+0.0000015726</f>
+        <v>1.1786502726000001</v>
       </c>
       <c r="D2" s="2">
-        <v>0.1</v>
+        <v>6.6820000000000004E-2</v>
       </c>
       <c r="E2" s="2">
         <f>4.94/293</f>
         <v>1.6860068259385668E-2</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -1348,7 +1352,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>

--- a/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
+++ b/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bhargava\Documents\GitHub\CEAforArcGIS\cea\databases\SIN\lifecycle\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="470" windowWidth="28800" windowHeight="16260" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DHW" sheetId="4" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
   <si>
     <t>Description</t>
   </si>
@@ -119,9 +119,6 @@
     <t>district cooling network - air-air</t>
   </si>
   <si>
-    <t>DC</t>
-  </si>
-  <si>
     <t>source_hs</t>
   </si>
   <si>
@@ -179,36 +176,9 @@
     <t>KBOB 2019, costs in USD-2015</t>
   </si>
   <si>
-    <t>Green Electricity</t>
-  </si>
-  <si>
-    <t>mix</t>
-  </si>
-  <si>
-    <t>Natural gas CHP</t>
-  </si>
-  <si>
-    <t>T8</t>
-  </si>
-  <si>
     <t>NG</t>
   </si>
   <si>
-    <t>Bio gas CHP</t>
-  </si>
-  <si>
-    <t>T9</t>
-  </si>
-  <si>
-    <t>BG</t>
-  </si>
-  <si>
-    <t>Agricultural Bio gas CHP</t>
-  </si>
-  <si>
-    <t>T10</t>
-  </si>
-  <si>
     <t>T25</t>
   </si>
   <si>
@@ -237,6 +207,9 @@
   </si>
   <si>
     <t>ecoinvent 3.4 - market for natural gas, burned in gas motor, for storage_GLO_2017_Allocation, cut-off</t>
+  </si>
+  <si>
+    <t>NONE</t>
   </si>
 </sst>
 </file>
@@ -323,7 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -339,12 +312,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -353,12 +320,6 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -719,19 +680,19 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.26953125" customWidth="1"/>
+    <col min="2" max="2" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -739,16 +700,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -756,16 +717,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="11">
+        <v>50</v>
+      </c>
+      <c r="D2" s="9">
         <v>0</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -773,30 +734,30 @@
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="16">
+        <v>26</v>
+      </c>
+      <c r="D3" s="12">
         <v>0.9</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>39</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -812,19 +773,19 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="51" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.26953125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -832,16 +793,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -849,47 +810,47 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="11">
+        <v>50</v>
+      </c>
+      <c r="D2" s="9">
         <v>0</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -902,20 +863,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -923,16 +884,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E1" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -945,45 +906,45 @@
       <c r="D2" s="6">
         <v>0</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="C3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="8">
         <v>2.7</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="10">
+      <c r="C4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="8">
         <v>3</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -991,47 +952,47 @@
         <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D5" s="6">
         <v>3.2</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="10">
+      <c r="C6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="8">
         <v>2.8</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="11">
+        <v>39</v>
+      </c>
+      <c r="D7" s="9">
         <v>0.8</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>52</v>
+      <c r="E7" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="F7" s="3"/>
     </row>
@@ -1043,22 +1004,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.54296875" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1066,51 +1025,33 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4">
-        <v>0</v>
+      <c r="C2" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
       </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="12">
-        <v>0</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E2" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -1118,157 +1059,30 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D3" s="4">
         <v>0.99</v>
       </c>
-      <c r="E3" s="6">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="F3" s="6">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G3" s="13">
-        <v>0</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E3" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4">
         <v>0.99</v>
       </c>
-      <c r="E4" s="8">
-        <v>2.5129999999999999</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="G4" s="12">
-        <f>0.22*0.75</f>
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.99</v>
-      </c>
-      <c r="E5" s="2">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G5" s="12">
-        <f>0.22*0.75</f>
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.99</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2.2932000000000001</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.14507999999999999</v>
-      </c>
-      <c r="G6" s="12">
-        <f>0.22*0.75</f>
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.99</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.66378000000000004</v>
-      </c>
-      <c r="F7" s="2">
-        <v>8.8919999999999999E-2</v>
-      </c>
-      <c r="G7" s="12">
-        <f>0.22*0.75</f>
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.99</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.12168</v>
-      </c>
-      <c r="F8" s="2">
-        <v>3.8609999999999998E-2</v>
-      </c>
-      <c r="G8" s="12">
-        <f>0.22*0.75</f>
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>52</v>
+      <c r="E4" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1280,16 +1094,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1305,16 +1119,16 @@
       <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F1" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2">
         <f>1.1767+0.0019487+0.0000015726</f>
@@ -1327,16 +1141,16 @@
         <f>4.94/293</f>
         <v>1.6860068259385668E-2</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2">
         <v>2.5129999999999999</v>
@@ -1348,16 +1162,16 @@
         <f>0.22*0.75</f>
         <v>0.16500000000000001</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2">
         <v>1E-4</v>
@@ -1368,8 +1182,8 @@
       <c r="E4" s="2">
         <v>1E-4</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>58</v>
+      <c r="F4" s="11" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
+++ b/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="470" windowWidth="28800" windowHeight="16260" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="470" windowWidth="28800" windowHeight="16260" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DHW" sheetId="4" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="54">
   <si>
     <t>Description</t>
   </si>
@@ -176,9 +176,6 @@
     <t>KBOB 2019, costs in USD-2015</t>
   </si>
   <si>
-    <t>NG</t>
-  </si>
-  <si>
     <t>T25</t>
   </si>
   <si>
@@ -210,6 +207,18 @@
   </si>
   <si>
     <t>NONE</t>
+  </si>
+  <si>
+    <t>centralized</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>NATURALGAS</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
 </sst>
 </file>
@@ -677,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -688,11 +697,12 @@
     <col min="1" max="1" width="44.26953125" customWidth="1"/>
     <col min="2" max="2" width="6.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -703,13 +713,16 @@
         <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -717,16 +730,19 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="9">
+        <v>49</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="9">
         <v>0</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -736,14 +752,17 @@
       <c r="C3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="12">
         <v>0.9</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>36</v>
       </c>
@@ -751,15 +770,18 @@
         <v>37</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="9">
+        <v>46</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="9">
         <v>0.7</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
@@ -770,22 +792,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="51" customWidth="1"/>
     <col min="2" max="2" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.26953125" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" customWidth="1"/>
+    <col min="5" max="5" width="6.26953125" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -796,13 +819,16 @@
         <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -810,33 +836,39 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="9">
+        <v>49</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="9">
         <v>0</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="9">
+        <v>52</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="9">
         <v>0.8</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>36</v>
       </c>
@@ -844,12 +876,15 @@
         <v>37</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="9">
+        <v>46</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="9">
         <v>0.7</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>38</v>
       </c>
     </row>
@@ -861,22 +896,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.36328125" customWidth="1"/>
     <col min="2" max="2" width="7.26953125" customWidth="1"/>
     <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -887,13 +923,16 @@
         <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -901,16 +940,19 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="6">
+        <v>49</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="6">
         <v>0</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -920,14 +962,17 @@
       <c r="C3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="8">
         <v>2.7</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -937,14 +982,17 @@
       <c r="C4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="8">
         <v>3</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -954,14 +1002,17 @@
       <c r="C5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="6">
         <v>3.2</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="F5" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -971,30 +1022,36 @@
       <c r="C6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="8">
         <v>2.8</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="F6" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="9">
+        <v>52</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="9">
         <v>0.8</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
@@ -1004,20 +1061,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="35.54296875" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.1796875" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1028,13 +1085,16 @@
         <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1042,16 +1102,19 @@
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="4">
+        <v>49</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="4">
         <v>0</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -1059,16 +1122,19 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="4">
+        <v>46</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="4">
         <v>0.99</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1078,10 +1144,13 @@
       <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="4">
         <v>0.99</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1094,13 +1163,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -1125,10 +1195,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2">
         <f>1.1767+0.0019487+0.0000015726</f>
@@ -1142,12 +1212,12 @@
         <v>1.6860068259385668E-2</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>26</v>
@@ -1163,15 +1233,15 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C4" s="2">
         <v>1E-4</v>
@@ -1183,7 +1253,7 @@
         <v>1E-4</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
+++ b/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="470" windowWidth="28800" windowHeight="16260" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="470" windowWidth="28800" windowHeight="16260" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DHW" sheetId="4" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="55">
   <si>
     <t>Description</t>
   </si>
@@ -209,16 +209,19 @@
     <t>NONE</t>
   </si>
   <si>
-    <t>centralized</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>NATURALGAS</t>
   </si>
   <si>
-    <t>YES</t>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>BUILDING</t>
+  </si>
+  <si>
+    <t>CITY</t>
+  </si>
+  <si>
+    <t>DISTRICT</t>
   </si>
 </sst>
 </file>
@@ -689,7 +692,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -713,7 +716,7 @@
         <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>28</v>
@@ -733,7 +736,7 @@
         <v>49</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2" s="9">
         <v>0</v>
@@ -753,7 +756,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" s="12">
         <v>0.9</v>
@@ -773,7 +776,7 @@
         <v>46</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E4" s="9">
         <v>0.7</v>
@@ -795,7 +798,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -819,7 +822,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>21</v>
@@ -839,7 +842,7 @@
         <v>49</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2" s="9">
         <v>0</v>
@@ -856,10 +859,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="E3" s="9">
         <v>0.8</v>
@@ -879,7 +882,7 @@
         <v>46</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E4" s="9">
         <v>0.7</v>
@@ -899,7 +902,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -923,7 +926,7 @@
         <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>23</v>
@@ -943,7 +946,7 @@
         <v>49</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2" s="6">
         <v>0</v>
@@ -963,7 +966,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" s="8">
         <v>2.7</v>
@@ -983,7 +986,7 @@
         <v>26</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E4" s="8">
         <v>3</v>
@@ -1003,7 +1006,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5" s="6">
         <v>3.2</v>
@@ -1023,7 +1026,7 @@
         <v>26</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6" s="8">
         <v>2.8</v>
@@ -1040,10 +1043,10 @@
         <v>39</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E7" s="9">
         <v>0.8</v>
@@ -1063,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1085,7 +1088,7 @@
         <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>24</v>
@@ -1105,7 +1108,7 @@
         <v>49</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -1125,7 +1128,7 @@
         <v>46</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" s="4">
         <v>0.99</v>
@@ -1145,7 +1148,7 @@
         <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E4" s="4">
         <v>0.99</v>
@@ -1163,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1198,7 +1201,7 @@
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2">
         <f>1.1767+0.0019487+0.0000015726</f>

--- a/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
+++ b/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bhargava\Documents\GitHub\CEAforArcGIS\cea\databases\SIN\lifecycle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JimenoF\Documents\Github\CityEnergyAnalyst\cea\databases\SIN\lifecycle\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="470" windowWidth="28800" windowHeight="16260" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DHW" sheetId="4" r:id="rId1"/>
     <sheet name="HEATING" sheetId="1" r:id="rId2"/>
     <sheet name="COOLING" sheetId="2" r:id="rId3"/>
     <sheet name="ELECTRICITY" sheetId="3" r:id="rId4"/>
-    <sheet name="FUELS" sheetId="5" r:id="rId5"/>
+    <sheet name="RESOURCES" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="58">
   <si>
     <t>Description</t>
   </si>
@@ -212,9 +212,6 @@
     <t>NATURALGAS</t>
   </si>
   <si>
-    <t>scale</t>
-  </si>
-  <si>
     <t>BUILDING</t>
   </si>
   <si>
@@ -222,6 +219,18 @@
   </si>
   <si>
     <t>DISTRICT</t>
+  </si>
+  <si>
+    <t>scale_el</t>
+  </si>
+  <si>
+    <t>scale_cs</t>
+  </si>
+  <si>
+    <t>scale_hs</t>
+  </si>
+  <si>
+    <t>scale_dhw</t>
   </si>
 </sst>
 </file>
@@ -692,20 +701,20 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.26953125" customWidth="1"/>
-    <col min="2" max="2" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -716,7 +725,7 @@
         <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>28</v>
@@ -725,7 +734,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -745,7 +754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -756,7 +765,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="12">
         <v>0.9</v>
@@ -765,7 +774,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>36</v>
       </c>
@@ -776,7 +785,7 @@
         <v>46</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="9">
         <v>0.7</v>
@@ -798,20 +807,20 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51" customWidth="1"/>
-    <col min="2" max="2" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -822,7 +831,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>21</v>
@@ -831,7 +840,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -851,7 +860,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
@@ -862,7 +871,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="9">
         <v>0.8</v>
@@ -871,7 +880,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>36</v>
       </c>
@@ -882,7 +891,7 @@
         <v>46</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="9">
         <v>0.7</v>
@@ -902,20 +911,20 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.36328125" customWidth="1"/>
-    <col min="2" max="2" width="7.26953125" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" customWidth="1"/>
-    <col min="5" max="5" width="8.453125" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -926,7 +935,7 @@
         <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>23</v>
@@ -935,7 +944,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -955,7 +964,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -966,7 +975,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="8">
         <v>2.7</v>
@@ -975,7 +984,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -986,7 +995,7 @@
         <v>26</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="8">
         <v>3</v>
@@ -995,7 +1004,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1006,7 +1015,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="6">
         <v>3.2</v>
@@ -1015,7 +1024,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1026,7 +1035,7 @@
         <v>26</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="8">
         <v>2.8</v>
@@ -1035,7 +1044,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>42</v>
       </c>
@@ -1046,7 +1055,7 @@
         <v>50</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="9">
         <v>0.8</v>
@@ -1066,18 +1075,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.54296875" customWidth="1"/>
-    <col min="3" max="4" width="10.1796875" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1088,7 +1098,7 @@
         <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>24</v>
@@ -1097,7 +1107,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1117,7 +1127,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -1128,7 +1138,7 @@
         <v>46</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="4">
         <v>0.99</v>
@@ -1137,7 +1147,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1148,7 +1158,7 @@
         <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="4">
         <v>0.99</v>
@@ -1166,17 +1176,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1196,7 +1206,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -1218,7 +1228,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -1239,7 +1249,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>45</v>
       </c>

--- a/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
+++ b/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
   <si>
     <t>Description</t>
   </si>
@@ -1174,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,64 +1208,82 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="2">
         <f>1.1767+0.0019487+0.0000015726</f>
         <v>1.1786502726000001</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D3" s="2">
         <v>6.6820000000000004E-2</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E3" s="2">
         <f>4.94/293</f>
         <v>1.6860068259385668E-2</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C4" s="2">
         <v>2.5129999999999999</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D4" s="2">
         <v>0.13100000000000001</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E4" s="2">
         <f>0.22*0.75</f>
         <v>0.16500000000000001</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="2">
         <v>1E-4</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="2">
         <v>1E-4</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E5" s="2">
         <v>1E-4</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F5" s="11" t="s">
         <v>47</v>
       </c>
     </row>

--- a/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
+++ b/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JimenoF\Documents\Github\CityEnergyAnalyst\cea\databases\SIN\lifecycle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\CityEnergyAnalyst\cea\databases\SIN\lifecycle\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
   <si>
     <t>Description</t>
   </si>
@@ -149,15 +149,9 @@
     <t>reference</t>
   </si>
   <si>
-    <t>KBOB 2019</t>
-  </si>
-  <si>
     <t>Embodied is neglected, only electricity</t>
   </si>
   <si>
-    <t>Electricity + losses only</t>
-  </si>
-  <si>
     <t>Embodied is neglected, only electricity, costs USD-2015</t>
   </si>
   <si>
@@ -173,9 +167,6 @@
     <t>T7</t>
   </si>
   <si>
-    <t>KBOB 2019, costs in USD-2015</t>
-  </si>
-  <si>
     <t>T25</t>
   </si>
   <si>
@@ -200,12 +191,6 @@
     <t>SOLAR</t>
   </si>
   <si>
-    <t>from CEA, costs in USD-2015,</t>
-  </si>
-  <si>
-    <t>ecoinvent 3.4 - market for natural gas, burned in gas motor, for storage_GLO_2017_Allocation, cut-off</t>
-  </si>
-  <si>
     <t>NONE</t>
   </si>
   <si>
@@ -231,6 +216,15 @@
   </si>
   <si>
     <t>scale_dhw</t>
+  </si>
+  <si>
+    <t>PEN and CO2 from ecoinvent 3.4 - market for natural gas, burned in gas motor, for storage_GLO_2017_Allocation, cut-off, cost from CEA</t>
+  </si>
+  <si>
+    <t>PEN and CO2 from ecoinvent 3.4 database - market for electricity, medium voltage - SG, convert to MJ, cost from CEA</t>
+  </si>
+  <si>
+    <t>PEN and CO2 zero equivalent due to renewable technology, cost from CEA, costs in USD-2015</t>
   </si>
 </sst>
 </file>
@@ -289,7 +283,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -312,12 +306,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -346,9 +362,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,7 +729,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,14 +753,13 @@
         <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="F1" s="17"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -742,17 +769,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="9">
+        <v>44</v>
+      </c>
+      <c r="E2" s="14">
         <v>0</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -765,35 +791,32 @@
         <v>26</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="12">
+        <v>46</v>
+      </c>
+      <c r="E3" s="15">
         <v>0.9</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="E4" s="14">
         <v>0.7</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="3"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
@@ -807,7 +830,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,14 +854,12 @@
         <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -848,57 +869,51 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="9">
+        <v>44</v>
+      </c>
+      <c r="E2" s="14">
         <v>0</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="9">
+        <v>46</v>
+      </c>
+      <c r="E3" s="14">
         <v>0.8</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="E4" s="14">
         <v>0.7</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="F4" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
@@ -911,7 +926,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,7 +950,7 @@
         <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>23</v>
@@ -952,17 +967,15 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E2" s="6">
         <v>0</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -975,13 +988,13 @@
         <v>26</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E3" s="8">
         <v>2.7</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -995,13 +1008,13 @@
         <v>26</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E4" s="8">
         <v>3</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1015,13 +1028,13 @@
         <v>26</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E5" s="6">
         <v>3.2</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1035,33 +1048,33 @@
         <v>26</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E6" s="8">
         <v>2.8</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E7" s="9">
         <v>0.8</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G7" s="3"/>
     </row>
@@ -1076,7 +1089,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,7 +1111,7 @@
         <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>24</v>
@@ -1115,17 +1128,15 @@
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1135,16 +1146,16 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="E3" s="4">
         <v>0.99</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1158,13 +1169,13 @@
         <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E4" s="4">
         <v>0.99</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1177,13 +1188,14 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="123" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1211,7 +1223,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -1226,10 +1238,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2">
         <f>1.1767+0.0019487+0.0000015726</f>
@@ -1243,12 +1255,12 @@
         <v>1.6860068259385668E-2</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>26</v>
@@ -1264,15 +1276,15 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2">
         <v>1E-4</v>
@@ -1284,7 +1296,7 @@
         <v>1E-4</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
+++ b/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260"/>
   </bookViews>
   <sheets>
     <sheet name="DHW" sheetId="4" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
   <si>
     <t>Description</t>
   </si>
@@ -149,18 +149,6 @@
     <t>reference</t>
   </si>
   <si>
-    <t>Embodied is neglected, only electricity</t>
-  </si>
-  <si>
-    <t>Embodied is neglected, only electricity, costs USD-2015</t>
-  </si>
-  <si>
-    <t>ecoinvent 3.4 - electricity production, photovoltaic, 3kWp flat-roof installation, single-Si RoW electricity, medium voltage, costs in USD-2015</t>
-  </si>
-  <si>
-    <t>ecoinvent 3.4 - market for electricity, medium voltage, SG, costs in USD-2015</t>
-  </si>
-  <si>
     <t>solar collector</t>
   </si>
   <si>
@@ -173,9 +161,6 @@
     <t>natural gas-fired boiler</t>
   </si>
   <si>
-    <t>from CEA, costs in USD-2015, except for PEN and CO2, rest are assumptions</t>
-  </si>
-  <si>
     <t>district cooling - natural gas-fired boiler for absorption chiller</t>
   </si>
   <si>
@@ -191,6 +176,12 @@
     <t>SOLAR</t>
   </si>
   <si>
+    <t>from CEA, costs in USD-2015,</t>
+  </si>
+  <si>
+    <t>ecoinvent 3.4 - market for natural gas, burned in gas motor, for storage_GLO_2017_Allocation, cut-off</t>
+  </si>
+  <si>
     <t>NONE</t>
   </si>
   <si>
@@ -216,15 +207,6 @@
   </si>
   <si>
     <t>scale_dhw</t>
-  </si>
-  <si>
-    <t>PEN and CO2 from ecoinvent 3.4 - market for natural gas, burned in gas motor, for storage_GLO_2017_Allocation, cut-off, cost from CEA</t>
-  </si>
-  <si>
-    <t>PEN and CO2 from ecoinvent 3.4 database - market for electricity, medium voltage - SG, convert to MJ, cost from CEA</t>
-  </si>
-  <si>
-    <t>PEN and CO2 zero equivalent due to renewable technology, cost from CEA, costs in USD-2015</t>
   </si>
 </sst>
 </file>
@@ -283,7 +265,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -306,34 +288,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -362,21 +322,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,10 +687,9 @@
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -753,15 +700,13 @@
         <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -769,18 +714,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="14">
+        <v>41</v>
+      </c>
+      <c r="E2" s="9">
         <v>0</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -791,32 +734,29 @@
         <v>26</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="15">
+        <v>43</v>
+      </c>
+      <c r="E3" s="12">
         <v>0.9</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="14">
+      <c r="E4" s="9">
         <v>0.7</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="16"/>
+      <c r="F4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
@@ -827,10 +767,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,10 +780,9 @@
     <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -854,14 +793,13 @@
         <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="17"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -869,51 +807,48 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="14">
+        <v>41</v>
+      </c>
+      <c r="E2" s="9">
         <v>0</v>
       </c>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="14">
+        <v>43</v>
+      </c>
+      <c r="E3" s="9">
         <v>0.8</v>
       </c>
-      <c r="F3" s="18"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="14">
+      <c r="E4" s="9">
         <v>0.7</v>
       </c>
-      <c r="F4" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
@@ -923,10 +858,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,10 +871,9 @@
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -950,16 +884,13 @@
         <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -967,17 +898,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E2" s="6">
         <v>0</v>
       </c>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -988,16 +918,13 @@
         <v>26</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E3" s="8">
         <v>2.7</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1008,16 +935,13 @@
         <v>26</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E4" s="8">
         <v>3</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1028,16 +952,13 @@
         <v>26</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E5" s="6">
         <v>3.2</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1048,35 +969,29 @@
         <v>26</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E6" s="8">
         <v>2.8</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="E7" s="9">
         <v>0.8</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
@@ -1086,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,10 +1012,9 @@
     <col min="1" max="1" width="35.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.140625" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1111,16 +1025,13 @@
         <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1128,17 +1039,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -1146,19 +1056,16 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="E3" s="4">
         <v>0.99</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1169,13 +1076,10 @@
         <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E4" s="4">
         <v>0.99</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1187,15 +1091,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="123" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1223,7 +1126,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -1238,10 +1141,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2">
         <f>1.1767+0.0019487+0.0000015726</f>
@@ -1255,12 +1158,12 @@
         <v>1.6860068259385668E-2</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>26</v>
@@ -1276,15 +1179,15 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2">
         <v>1E-4</v>
@@ -1296,7 +1199,7 @@
         <v>1E-4</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
+++ b/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\CityEnergyAnalyst\cea\databases\SIN\lifecycle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jimeno\Documents\CityEnergyAnalyst\cea\databases\SIN\lifecycle\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260"/>
+    <workbookView xWindow="0" yWindow="2865" windowWidth="28800" windowHeight="16260" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DHW" sheetId="4" r:id="rId1"/>
@@ -56,8 +56,60 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Jimeno</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>non-renewable primary energy due to operation in MJ oil-eq / MJ (resource).yr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="51">
   <si>
     <t>Description</t>
   </si>
@@ -207,6 +259,9 @@
   </si>
   <si>
     <t>scale_dhw</t>
+  </si>
+  <si>
+    <t>educated guess</t>
   </si>
 </sst>
 </file>
@@ -676,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,6 +742,7 @@
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -705,6 +761,9 @@
       <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="F1" s="10" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -722,6 +781,9 @@
       <c r="E2" s="9">
         <v>0</v>
       </c>
+      <c r="F2" s="11" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -739,6 +801,9 @@
       <c r="E3" s="12">
         <v>0.9</v>
       </c>
+      <c r="F3" s="11" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -756,7 +821,9 @@
       <c r="E4" s="9">
         <v>0.7</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="11" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
@@ -767,10 +834,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="F1" sqref="F1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,9 +847,10 @@
     <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -798,8 +866,11 @@
       <c r="E1" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -815,8 +886,11 @@
       <c r="E2" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -832,8 +906,11 @@
       <c r="E3" s="9">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
@@ -848,6 +925,9 @@
       </c>
       <c r="E4" s="9">
         <v>0.7</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -861,7 +941,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="F1" sqref="F1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,6 +951,7 @@
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -889,6 +970,9 @@
       <c r="E1" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F1" s="10" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -906,6 +990,9 @@
       <c r="E2" s="6">
         <v>0</v>
       </c>
+      <c r="F2" s="11" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -923,6 +1010,9 @@
       <c r="E3" s="8">
         <v>2.7</v>
       </c>
+      <c r="F3" s="11" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -940,6 +1030,9 @@
       <c r="E4" s="8">
         <v>3</v>
       </c>
+      <c r="F4" s="11" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -957,6 +1050,9 @@
       <c r="E5" s="6">
         <v>3.2</v>
       </c>
+      <c r="F5" s="11" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -974,6 +1070,9 @@
       <c r="E6" s="8">
         <v>2.8</v>
       </c>
+      <c r="F6" s="11" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -991,7 +1090,9 @@
       <c r="E7" s="9">
         <v>0.8</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="11" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
@@ -1001,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F1" sqref="F1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,9 +1113,10 @@
     <col min="1" max="1" width="35.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.140625" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1030,8 +1132,11 @@
       <c r="E1" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1047,8 +1152,11 @@
       <c r="E2" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -1064,8 +1172,11 @@
       <c r="E3" s="4">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1080,6 +1191,9 @@
       </c>
       <c r="E4" s="4">
         <v>0.99</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1088,17 +1202,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="92.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1204,5 +1319,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
+++ b/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jimeno\Documents\CityEnergyAnalyst\cea\databases\SIN\lifecycle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\CityEnergyAnalyst\cea\databases\SIN\lifecycle\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2865" windowWidth="28800" windowHeight="16260" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2865" windowWidth="28800" windowHeight="16260" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DHW" sheetId="4" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="52">
   <si>
     <t>Description</t>
   </si>
@@ -228,12 +228,6 @@
     <t>SOLAR</t>
   </si>
   <si>
-    <t>from CEA, costs in USD-2015,</t>
-  </si>
-  <si>
-    <t>ecoinvent 3.4 - market for natural gas, burned in gas motor, for storage_GLO_2017_Allocation, cut-off</t>
-  </si>
-  <si>
     <t>NONE</t>
   </si>
   <si>
@@ -262,6 +256,15 @@
   </si>
   <si>
     <t>educated guess</t>
+  </si>
+  <si>
+    <t>PEN and CO2 from ecoinvent 3.4 - market for natural gas, burned in gas motor, for storage_GLO_2017_Allocation, cut-off, cost from CEA</t>
+  </si>
+  <si>
+    <t>PEN and CO2 from ecoinvent 3.4 database - market for electricity, medium voltage - SG, convert to MJ, cost from CEA</t>
+  </si>
+  <si>
+    <t>PEN and CO2 zero equivalent due to renewable technology, cost from CEA, costs in USD-2015</t>
   </si>
 </sst>
 </file>
@@ -756,7 +759,7 @@
         <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>28</v>
@@ -773,16 +776,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E2" s="9">
         <v>0</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -796,13 +799,13 @@
         <v>26</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E3" s="12">
         <v>0.9</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -816,13 +819,13 @@
         <v>38</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E4" s="9">
         <v>0.7</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -861,7 +864,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>21</v>
@@ -878,16 +881,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E2" s="9">
         <v>0</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -898,16 +901,16 @@
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E3" s="9">
         <v>0.8</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -921,13 +924,13 @@
         <v>38</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E4" s="9">
         <v>0.7</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -965,7 +968,7 @@
         <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>23</v>
@@ -982,16 +985,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E2" s="6">
         <v>0</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1005,13 +1008,13 @@
         <v>26</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E3" s="8">
         <v>2.7</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1025,13 +1028,13 @@
         <v>26</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E4" s="8">
         <v>3</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1045,13 +1048,13 @@
         <v>26</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E5" s="6">
         <v>3.2</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1065,13 +1068,13 @@
         <v>26</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6" s="8">
         <v>2.8</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1082,16 +1085,16 @@
         <v>32</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E7" s="9">
         <v>0.8</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1127,7 +1130,7 @@
         <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>24</v>
@@ -1144,16 +1147,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1167,13 +1170,13 @@
         <v>38</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E3" s="4">
         <v>0.99</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1187,13 +1190,13 @@
         <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E4" s="4">
         <v>0.99</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1206,14 +1209,14 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="92.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="123" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1241,7 +1244,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -1259,7 +1262,7 @@
         <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2">
         <f>1.1767+0.0019487+0.0000015726</f>
@@ -1273,7 +1276,7 @@
         <v>1.6860068259385668E-2</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1294,7 +1297,7 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1314,7 +1317,7 @@
         <v>1E-4</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
+++ b/cea/databases/SIN/lifecycle/LCA_infrastructure.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\CityEnergyAnalyst\cea\databases\SIN\lifecycle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bhargava\Documents\GitHub\CityEnergyAnalyst\cea\databases\SIN\lifecycle\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2865" windowWidth="28800" windowHeight="16260" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2870" windowWidth="28800" windowHeight="16260" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DHW" sheetId="4" r:id="rId1"/>
@@ -738,17 +738,17 @@
       <selection activeCell="F1" sqref="F1:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.26953125" customWidth="1"/>
+    <col min="2" max="2" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -768,7 +768,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -788,7 +788,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -808,7 +808,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
@@ -843,17 +843,17 @@
       <selection activeCell="F1" sqref="F1:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="51" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" customWidth="1"/>
+    <col min="5" max="5" width="6.26953125" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -873,7 +873,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -893,7 +893,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -913,7 +913,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
@@ -947,17 +947,17 @@
       <selection activeCell="F1" sqref="F1:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.453125" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -977,7 +977,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -997,7 +997,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
@@ -1111,15 +1111,15 @@
       <selection activeCell="F1" sqref="F1:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.54296875" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1209,17 +1209,17 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
     <col min="6" max="6" width="123" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -1293,14 +1293,14 @@
         <v>0.13100000000000001</v>
       </c>
       <c r="E4" s="2">
-        <f>0.22*0.75</f>
-        <v>0.16500000000000001</v>
+        <f>0.2*0.75</f>
+        <v>0.15000000000000002</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
